--- a/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_NOx.xlsx
+++ b/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_NOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>870.5573101160591</v>
+        <v>1673.346685911705</v>
       </c>
       <c r="C2">
-        <v>0.122500174517917</v>
+        <v>0.2354644073068945</v>
       </c>
       <c r="D2">
-        <v>83.18076039768268</v>
+        <v>159.8863717823722</v>
       </c>
       <c r="E2">
-        <v>21.39072377805957</v>
+        <v>41.11630139375525</v>
       </c>
       <c r="F2">
-        <v>113.8395332769911</v>
+        <v>218.8173064785278</v>
       </c>
       <c r="G2">
-        <v>164.9608288491571</v>
+        <v>317.0803955723318</v>
       </c>
       <c r="H2">
-        <v>13.95772550778542</v>
+        <v>26.82892148502467</v>
       </c>
       <c r="I2">
-        <v>1268.009382100253</v>
+        <v>2437.311447031024</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>628.5767420081406</v>
+        <v>1208.222360386906</v>
       </c>
       <c r="C3">
-        <v>0.09187513088843778</v>
+        <v>0.1765983054801709</v>
       </c>
       <c r="D3">
-        <v>75.61887308880249</v>
+        <v>145.3512470748839</v>
       </c>
       <c r="E3">
-        <v>6.684601180643616</v>
+        <v>12.84884418554851</v>
       </c>
       <c r="F3">
-        <v>136.9631884738799</v>
+        <v>263.2645718569787</v>
       </c>
       <c r="G3">
-        <v>137.0013663323508</v>
+        <v>263.3379556448178</v>
       </c>
       <c r="H3">
-        <v>12.21300981931224</v>
+        <v>23.47530629939659</v>
       </c>
       <c r="I3">
-        <v>997.1496560340181</v>
+        <v>1916.676883754012</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>744.555594178208</v>
+        <v>1431.151770845537</v>
       </c>
       <c r="C4">
-        <v>0.06125008725895852</v>
+        <v>0.1177322036534472</v>
       </c>
       <c r="D4">
-        <v>94.52359136100308</v>
+        <v>181.6890588436047</v>
       </c>
       <c r="E4">
-        <v>12.03228212515851</v>
+        <v>23.12791953398731</v>
       </c>
       <c r="F4">
-        <v>129.8482176440679</v>
+        <v>249.5884902020707</v>
       </c>
       <c r="G4">
-        <v>134.2054200806702</v>
+        <v>257.9637116520666</v>
       </c>
       <c r="H4">
-        <v>1.744715688473177</v>
+        <v>3.353615185628084</v>
       </c>
       <c r="I4">
-        <v>1116.97107116484</v>
+        <v>2146.992298466547</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>936.4218434472083</v>
+        <v>1799.948573332657</v>
       </c>
       <c r="C5">
-        <v>0.0816667830119447</v>
+        <v>0.1569762715379296</v>
       </c>
       <c r="D5">
-        <v>86.96170405212285</v>
+        <v>167.1539341361163</v>
       </c>
       <c r="E5">
-        <v>12.03228212515851</v>
+        <v>23.12791953398731</v>
       </c>
       <c r="F5">
-        <v>124.511989521709</v>
+        <v>239.3314289608898</v>
       </c>
       <c r="G5">
-        <v>125.8175813256283</v>
+        <v>241.8409796738124</v>
       </c>
       <c r="H5">
-        <v>1.744715688473177</v>
+        <v>3.353615185628084</v>
       </c>
       <c r="I5">
-        <v>1287.571782943312</v>
+        <v>2474.913427094629</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>955.0357333016628</v>
+        <v>1835.727367603796</v>
       </c>
       <c r="C6">
-        <v>0.1429168702709032</v>
+        <v>0.2747084751913769</v>
       </c>
       <c r="D6">
-        <v>90.74264770656301</v>
+        <v>174.4214964898606</v>
       </c>
       <c r="E6">
-        <v>13.36920236128723</v>
+        <v>25.69768837109703</v>
       </c>
       <c r="F6">
-        <v>163.6443290856747</v>
+        <v>314.5498780628836</v>
       </c>
       <c r="G6">
-        <v>139.7973125840313</v>
+        <v>268.7121996375694</v>
       </c>
       <c r="H6">
-        <v>6.978862753892709</v>
+        <v>13.41446074251233</v>
       </c>
       <c r="I6">
-        <v>1369.711004663383</v>
+        <v>2632.79779938291</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>853.3752579427155</v>
+        <v>1640.320106584501</v>
       </c>
       <c r="C7">
-        <v>0.0816667830119447</v>
+        <v>0.1569762715379296</v>
       </c>
       <c r="D7">
-        <v>113.4283096332037</v>
+        <v>218.0268706123257</v>
       </c>
       <c r="E7">
-        <v>14.70612259741596</v>
+        <v>28.26745720820673</v>
       </c>
       <c r="F7">
-        <v>179.6530134527516</v>
+        <v>345.3210617864266</v>
       </c>
       <c r="G7">
-        <v>125.8175813256283</v>
+        <v>241.8409796738124</v>
       </c>
       <c r="H7">
-        <v>27.91545101557084</v>
+        <v>53.65784297004934</v>
       </c>
       <c r="I7">
-        <v>1314.977402750298</v>
+        <v>2527.591295106859</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>940.7173564905432</v>
+        <v>1808.205218164458</v>
       </c>
       <c r="C8">
-        <v>0.09187513088843778</v>
+        <v>0.1765983054801709</v>
       </c>
       <c r="D8">
-        <v>147.4568025231648</v>
+        <v>283.4349317960235</v>
       </c>
       <c r="E8">
-        <v>16.04304283354468</v>
+        <v>30.83722604531642</v>
       </c>
       <c r="F8">
-        <v>124.511989521709</v>
+        <v>239.3314289608898</v>
       </c>
       <c r="G8">
-        <v>103.4500113121833</v>
+        <v>198.8470277318013</v>
       </c>
       <c r="H8">
-        <v>13.95772550778542</v>
+        <v>26.82892148502467</v>
       </c>
       <c r="I8">
-        <v>1346.228803319819</v>
+        <v>2587.661352488994</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>1032.354968081707</v>
+        <v>1984.346974576217</v>
       </c>
       <c r="C9">
-        <v>0.06125008725895852</v>
+        <v>0.1177322036534472</v>
       </c>
       <c r="D9">
-        <v>136.1139715598444</v>
+        <v>261.6322447347909</v>
       </c>
       <c r="E9">
-        <v>28.07532495870319</v>
+        <v>53.96514557930374</v>
       </c>
       <c r="F9">
-        <v>145.8569020111448</v>
+        <v>280.3596739256138</v>
       </c>
       <c r="G9">
-        <v>81.0824412987382</v>
+        <v>155.8530757897903</v>
       </c>
       <c r="H9">
-        <v>8.723578442365886</v>
+        <v>16.76807592814042</v>
       </c>
       <c r="I9">
-        <v>1432.268436439763</v>
+        <v>2753.042922737509</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>1470.497298501962</v>
+        <v>2826.524747419935</v>
       </c>
       <c r="C10">
-        <v>0.09187513088843778</v>
+        <v>0.1765983054801709</v>
       </c>
       <c r="D10">
-        <v>113.4283096332037</v>
+        <v>218.0268706123257</v>
       </c>
       <c r="E10">
-        <v>24.06456425031703</v>
+        <v>46.25583906797463</v>
       </c>
       <c r="F10">
-        <v>122.733246814256</v>
+        <v>235.9124085471628</v>
       </c>
       <c r="G10">
-        <v>64.30676378865441</v>
+        <v>123.6076118332819</v>
       </c>
       <c r="H10">
-        <v>6.978862753892709</v>
+        <v>13.41446074251233</v>
       </c>
       <c r="I10">
-        <v>1802.100920873174</v>
+        <v>3463.918536528673</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,25 +699,25 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>1466.201785458626</v>
+        <v>2818.268102588135</v>
       </c>
       <c r="C11">
-        <v>0.0816667830119447</v>
+        <v>0.1569762715379296</v>
       </c>
       <c r="D11">
-        <v>94.52359136100308</v>
+        <v>181.6890588436047</v>
       </c>
       <c r="E11">
-        <v>36.09684637547554</v>
+        <v>69.38375860196199</v>
       </c>
       <c r="F11">
-        <v>71.14970829811945</v>
+        <v>136.7608165490799</v>
       </c>
       <c r="G11">
-        <v>67.1027100403351</v>
+        <v>128.9818558260333</v>
       </c>
       <c r="I11">
-        <v>1735.156308316571</v>
+        <v>3335.240568680353</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,25 +725,25 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>1139.742794165103</v>
+        <v>2190.763095371246</v>
       </c>
       <c r="C12">
-        <v>0.1531252181473963</v>
+        <v>0.294330509133618</v>
       </c>
       <c r="D12">
-        <v>68.05698577992221</v>
+        <v>130.8161223673955</v>
       </c>
       <c r="E12">
-        <v>30.74916543096064</v>
+        <v>59.10468325352316</v>
       </c>
       <c r="F12">
-        <v>83.60090725029032</v>
+        <v>160.6939594451688</v>
       </c>
       <c r="G12">
-        <v>64.30676378865441</v>
+        <v>123.6076118332819</v>
       </c>
       <c r="I12">
-        <v>1386.609741633078</v>
+        <v>2665.279802779749</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -751,28 +751,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>913.5124405494164</v>
+        <v>1755.913134229716</v>
       </c>
       <c r="C13">
-        <v>0.112291826641424</v>
+        <v>0.2158423733646533</v>
       </c>
       <c r="D13">
-        <v>83.18076039768268</v>
+        <v>159.8863717823722</v>
       </c>
       <c r="E13">
-        <v>21.39072377805957</v>
+        <v>41.11630139375525</v>
       </c>
       <c r="F13">
-        <v>49.8047958086836</v>
+        <v>95.73257158435588</v>
       </c>
       <c r="G13">
-        <v>114.6337963189058</v>
+        <v>220.3440037028068</v>
       </c>
       <c r="H13">
-        <v>1.744715688473177</v>
+        <v>3.353615185628084</v>
       </c>
       <c r="I13">
-        <v>1184.379524367863</v>
+        <v>2276.561840251999</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,25 +780,25 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>682.9865738903947</v>
+        <v>1312.806528256387</v>
       </c>
       <c r="C14">
-        <v>0.0816667830119447</v>
+        <v>0.1569762715379296</v>
       </c>
       <c r="D14">
-        <v>45.3713238532815</v>
+        <v>87.21074824493029</v>
       </c>
       <c r="E14">
-        <v>12.03228212515851</v>
+        <v>23.12791953398731</v>
       </c>
       <c r="F14">
-        <v>37.35359685651267</v>
+        <v>71.79942868826691</v>
       </c>
       <c r="G14">
-        <v>117.4297425705864</v>
+        <v>225.7182476955583</v>
       </c>
       <c r="I14">
-        <v>895.2551860789457</v>
+        <v>1720.819848690668</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -806,25 +806,25 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>449.5970318691486</v>
+        <v>864.1954923951899</v>
       </c>
       <c r="C15">
-        <v>0.112291826641424</v>
+        <v>0.2158423733646533</v>
       </c>
       <c r="D15">
-        <v>45.3713238532815</v>
+        <v>87.21074824493029</v>
       </c>
       <c r="E15">
-        <v>12.03228212515851</v>
+        <v>23.12791953398731</v>
       </c>
       <c r="F15">
-        <v>44.46856768632465</v>
+        <v>85.47551034317488</v>
       </c>
       <c r="G15">
-        <v>72.69460254369632</v>
+        <v>139.730343811536</v>
       </c>
       <c r="I15">
-        <v>624.2760999042511</v>
+        <v>1199.955856702183</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -832,25 +832,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>224.7985159345743</v>
+        <v>432.097746197595</v>
       </c>
       <c r="C16">
-        <v>0.09187513088843778</v>
+        <v>0.1765983054801709</v>
       </c>
       <c r="D16">
-        <v>26.46660558108087</v>
+        <v>50.87293647620933</v>
       </c>
       <c r="E16">
-        <v>9.358441652901066</v>
+        <v>17.98838185976791</v>
       </c>
       <c r="F16">
-        <v>19.56616978198285</v>
+        <v>37.60922455099696</v>
       </c>
       <c r="G16">
-        <v>55.91892503361258</v>
+        <v>107.4848798550277</v>
       </c>
       <c r="I16">
-        <v>336.2005331150402</v>
+        <v>646.2297672450771</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -858,25 +858,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>163.229495646761</v>
+        <v>313.7525036084447</v>
       </c>
       <c r="C17">
-        <v>0.0816667830119447</v>
+        <v>0.1569762715379296</v>
       </c>
       <c r="D17">
-        <v>3.780943654440124</v>
+        <v>7.26756235374419</v>
       </c>
       <c r="E17">
-        <v>6.684601180643616</v>
+        <v>12.84884418554851</v>
       </c>
       <c r="F17">
-        <v>21.34491248943583</v>
+        <v>41.02824496472396</v>
       </c>
       <c r="G17">
-        <v>36.34730127184816</v>
+        <v>69.86517190576802</v>
       </c>
       <c r="I17">
-        <v>231.4689210261407</v>
+        <v>444.9193032897673</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -884,25 +884,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>95.93312463449986</v>
+        <v>184.3984012435596</v>
       </c>
       <c r="C18">
-        <v>0.1429168702709032</v>
+        <v>0.2747084751913769</v>
       </c>
       <c r="D18">
-        <v>15.12377461776049</v>
+        <v>29.07024941497676</v>
       </c>
       <c r="E18">
-        <v>4.01076070838617</v>
+        <v>7.709306511329106</v>
       </c>
       <c r="F18">
-        <v>17.78742707452986</v>
+        <v>34.19020413726997</v>
       </c>
       <c r="G18">
-        <v>36.34730127184816</v>
+        <v>69.86517190576802</v>
       </c>
       <c r="I18">
-        <v>169.3453051772954</v>
+        <v>325.5080416880949</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -910,22 +910,22 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>75.88739709893274</v>
+        <v>145.8673920284875</v>
       </c>
       <c r="C19">
-        <v>0.06125008725895852</v>
+        <v>0.1177322036534472</v>
       </c>
       <c r="D19">
-        <v>3.780943654440124</v>
+        <v>7.26756235374419</v>
       </c>
       <c r="F19">
-        <v>17.78742707452986</v>
+        <v>34.19020413726997</v>
       </c>
       <c r="G19">
-        <v>39.14324752352879</v>
+        <v>75.23941589851941</v>
       </c>
       <c r="I19">
-        <v>136.6602654386905</v>
+        <v>262.6823066216745</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -933,25 +933,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>67.29637101226109</v>
+        <v>129.3541023648852</v>
       </c>
       <c r="C20">
-        <v>0.03062504362947926</v>
+        <v>0.05886610182672362</v>
       </c>
       <c r="D20">
-        <v>15.12377461776049</v>
+        <v>29.07024941497676</v>
       </c>
       <c r="E20">
-        <v>1.336920236128723</v>
+        <v>2.569768837109703</v>
       </c>
       <c r="F20">
-        <v>30.23862602670077</v>
+        <v>58.12334703335894</v>
       </c>
       <c r="G20">
-        <v>53.1229787819319</v>
+        <v>102.1106358622764</v>
       </c>
       <c r="I20">
-        <v>167.1492957184124</v>
+        <v>321.2869696144336</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -959,25 +959,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>138.8882550678581</v>
+        <v>266.9648495615713</v>
       </c>
       <c r="C21">
-        <v>0.03062504362947926</v>
+        <v>0.05886610182672362</v>
       </c>
       <c r="D21">
-        <v>22.68566192664075</v>
+        <v>43.60537412246514</v>
       </c>
       <c r="E21">
-        <v>4.01076070838617</v>
+        <v>7.709306511329106</v>
       </c>
       <c r="F21">
-        <v>28.45988331924777</v>
+        <v>54.70432661963196</v>
       </c>
       <c r="G21">
-        <v>120.225688822267</v>
+        <v>231.0924916883096</v>
       </c>
       <c r="I21">
-        <v>314.3008748880293</v>
+        <v>604.1352146051338</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -985,25 +985,25 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>365.1186086835442</v>
+        <v>701.8148107031003</v>
       </c>
       <c r="C22">
-        <v>0.03062504362947926</v>
+        <v>0.05886610182672362</v>
       </c>
       <c r="D22">
-        <v>75.61887308880249</v>
+        <v>145.3512470748839</v>
       </c>
       <c r="E22">
-        <v>12.03228212515851</v>
+        <v>23.12791953398731</v>
       </c>
       <c r="F22">
-        <v>46.24731039377762</v>
+        <v>88.89453075690191</v>
       </c>
       <c r="G22">
-        <v>226.4716463861309</v>
+        <v>435.3137634128623</v>
       </c>
       <c r="I22">
-        <v>725.5193457210432</v>
+        <v>1394.561137583562</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1011,28 +1011,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>839.0568811315958</v>
+        <v>1612.797957145163</v>
       </c>
       <c r="C23">
-        <v>0.06125008725895852</v>
+        <v>0.1177322036534472</v>
       </c>
       <c r="D23">
-        <v>64.27604212548211</v>
+        <v>123.5485600136513</v>
       </c>
       <c r="E23">
-        <v>45.45528802837659</v>
+        <v>87.37214046172987</v>
       </c>
       <c r="F23">
-        <v>124.511989521709</v>
+        <v>239.3314289608898</v>
       </c>
       <c r="G23">
-        <v>206.9000226243666</v>
+        <v>397.6940554636026</v>
       </c>
       <c r="H23">
-        <v>6.978862753892709</v>
+        <v>13.41446074251233</v>
       </c>
       <c r="I23">
-        <v>1287.240336272682</v>
+        <v>2474.276334991202</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1040,28 +1040,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>1085.332962282849</v>
+        <v>2086.178927501763</v>
       </c>
       <c r="C24">
-        <v>0.07145843513545161</v>
+        <v>0.1373542375956885</v>
       </c>
       <c r="D24">
-        <v>64.27604212548211</v>
+        <v>123.5485600136513</v>
       </c>
       <c r="E24">
-        <v>28.07532495870319</v>
+        <v>53.96514557930374</v>
       </c>
       <c r="F24">
-        <v>112.0607905695381</v>
+        <v>215.3982860648008</v>
       </c>
       <c r="G24">
-        <v>167.7567751008376</v>
+        <v>322.4546395650833</v>
       </c>
       <c r="H24">
-        <v>6.978862753892709</v>
+        <v>13.41446074251233</v>
       </c>
       <c r="I24">
-        <v>1464.552216226438</v>
+        <v>2815.09737370471</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1069,28 +1069,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>1275.767373870737</v>
+        <v>2452.223515044949</v>
       </c>
       <c r="C25">
-        <v>0.05104173938246544</v>
+        <v>0.09811016971120602</v>
       </c>
       <c r="D25">
-        <v>109.6473659787636</v>
+        <v>210.7593082585815</v>
       </c>
       <c r="E25">
-        <v>25.40148448644575</v>
+        <v>48.82560790508434</v>
       </c>
       <c r="F25">
-        <v>94.27336349500824</v>
+        <v>181.2080819275308</v>
       </c>
       <c r="G25">
-        <v>134.2054200806702</v>
+        <v>257.9637116520666</v>
       </c>
       <c r="H25">
-        <v>10.46829413083906</v>
+        <v>20.1216911137685</v>
       </c>
       <c r="I25">
-        <v>1649.814343781846</v>
+        <v>3171.200026071692</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1098,28 +1098,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>1039.514156487267</v>
+        <v>1998.108049295886</v>
       </c>
       <c r="C26">
-        <v>0.1633335660238894</v>
+        <v>0.3139525430758593</v>
       </c>
       <c r="D26">
-        <v>98.30453501544321</v>
+        <v>188.956621197349</v>
       </c>
       <c r="E26">
-        <v>25.40148448644575</v>
+        <v>48.82560790508434</v>
       </c>
       <c r="F26">
-        <v>142.2994165962389</v>
+        <v>273.5216330981598</v>
       </c>
       <c r="G26">
-        <v>201.3081301210052</v>
+        <v>386.9455674780998</v>
       </c>
       <c r="H26">
-        <v>12.21300981931224</v>
+        <v>23.47530629939659</v>
       </c>
       <c r="I26">
-        <v>1519.204066091736</v>
+        <v>2920.146737817051</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1127,28 +1127,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>751.7147825837675</v>
+        <v>1444.912845565206</v>
       </c>
       <c r="C27">
-        <v>0.122500174517917</v>
+        <v>0.2354644073068945</v>
       </c>
       <c r="D27">
-        <v>90.74264770656301</v>
+        <v>174.4214964898606</v>
       </c>
       <c r="E27">
-        <v>9.358441652901066</v>
+        <v>17.98838185976791</v>
       </c>
       <c r="F27">
-        <v>172.5380426229396</v>
+        <v>331.6449801315187</v>
       </c>
       <c r="G27">
-        <v>167.7567751008376</v>
+        <v>322.4546395650833</v>
       </c>
       <c r="H27">
-        <v>10.46829413083906</v>
+        <v>20.1216911137685</v>
       </c>
       <c r="I27">
-        <v>1202.701483972366</v>
+        <v>2311.779499132512</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1156,28 +1156,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>811.8519651904691</v>
+        <v>1560.505873210422</v>
       </c>
       <c r="C28">
-        <v>0.07145843513545161</v>
+        <v>0.1373542375956885</v>
       </c>
       <c r="D28">
-        <v>102.0854786698833</v>
+        <v>196.2241835510932</v>
       </c>
       <c r="E28">
-        <v>13.36920236128723</v>
+        <v>25.69768837109703</v>
       </c>
       <c r="F28">
-        <v>142.2994165962389</v>
+        <v>273.5216330981598</v>
       </c>
       <c r="G28">
-        <v>145.3892050873926</v>
+        <v>279.4606876230721</v>
       </c>
       <c r="H28">
-        <v>1.744715688473177</v>
+        <v>3.353615185628084</v>
       </c>
       <c r="I28">
-        <v>1216.81144202888</v>
+        <v>2338.901035277067</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1185,28 +1185,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>896.3303883760731</v>
+        <v>1722.886554902512</v>
       </c>
       <c r="C29">
-        <v>0.112291826641424</v>
+        <v>0.2158423733646533</v>
       </c>
       <c r="D29">
-        <v>75.61887308880249</v>
+        <v>145.3512470748839</v>
       </c>
       <c r="E29">
-        <v>12.03228212515851</v>
+        <v>23.12791953398731</v>
       </c>
       <c r="F29">
-        <v>145.8569020111448</v>
+        <v>280.3596739256138</v>
       </c>
       <c r="G29">
-        <v>100.6540650605026</v>
+        <v>193.4727837390499</v>
       </c>
       <c r="H29">
-        <v>6.978862753892709</v>
+        <v>13.41446074251233</v>
       </c>
       <c r="I29">
-        <v>1237.583665242216</v>
+        <v>2378.828482291925</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1214,28 +1214,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>985.104324605014</v>
+        <v>1893.523881426404</v>
       </c>
       <c r="C30">
-        <v>0.122500174517917</v>
+        <v>0.2354644073068945</v>
       </c>
       <c r="D30">
-        <v>94.52359136100308</v>
+        <v>181.6890588436047</v>
       </c>
       <c r="E30">
-        <v>12.03228212515851</v>
+        <v>23.12791953398731</v>
       </c>
       <c r="F30">
-        <v>115.6182759844441</v>
+        <v>222.2363268922548</v>
       </c>
       <c r="G30">
-        <v>117.4297425705864</v>
+        <v>225.7182476955583</v>
       </c>
       <c r="H30">
-        <v>1.744715688473177</v>
+        <v>3.353615185628084</v>
       </c>
       <c r="I30">
-        <v>1326.575432509197</v>
+        <v>2549.884513984744</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1243,28 +1243,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>922.1034666360881</v>
+        <v>1772.42642389332</v>
       </c>
       <c r="C31">
-        <v>0.09187513088843778</v>
+        <v>0.1765983054801709</v>
       </c>
       <c r="D31">
-        <v>94.52359136100308</v>
+        <v>181.6890588436047</v>
       </c>
       <c r="E31">
-        <v>10.69536188902979</v>
+        <v>20.55815069687763</v>
       </c>
       <c r="F31">
-        <v>174.3167853303926</v>
+        <v>335.0640005452458</v>
       </c>
       <c r="G31">
-        <v>111.8378500672252</v>
+        <v>214.9697597100555</v>
       </c>
       <c r="H31">
-        <v>8.723578442365886</v>
+        <v>16.76807592814042</v>
       </c>
       <c r="I31">
-        <v>1322.292508856993</v>
+        <v>2541.652067922724</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1272,28 +1272,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>1043.809669530603</v>
+        <v>2006.364694127687</v>
       </c>
       <c r="C32">
-        <v>0.1327085223944102</v>
+        <v>0.2550864412491357</v>
       </c>
       <c r="D32">
-        <v>71.83792943436237</v>
+        <v>138.0836847211396</v>
       </c>
       <c r="E32">
-        <v>10.69536188902979</v>
+        <v>20.55815069687763</v>
       </c>
       <c r="F32">
-        <v>122.733246814256</v>
+        <v>235.9124085471628</v>
       </c>
       <c r="G32">
-        <v>117.4297425705864</v>
+        <v>225.7182476955583</v>
       </c>
       <c r="H32">
-        <v>5.234147065419532</v>
+        <v>10.06084555688425</v>
       </c>
       <c r="I32">
-        <v>1371.872805826652</v>
+        <v>2636.953117786558</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1301,28 +1301,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>1132.583605759544</v>
+        <v>2177.002020651576</v>
       </c>
       <c r="C33">
-        <v>0.0816667830119447</v>
+        <v>0.1569762715379296</v>
       </c>
       <c r="D33">
-        <v>132.3330279054043</v>
+        <v>254.3646823810466</v>
       </c>
       <c r="E33">
-        <v>25.40148448644575</v>
+        <v>48.82560790508434</v>
       </c>
       <c r="F33">
-        <v>149.4143874260507</v>
+        <v>287.1977147530677</v>
       </c>
       <c r="G33">
-        <v>69.89865629201567</v>
+        <v>134.3560998187847</v>
       </c>
       <c r="H33">
-        <v>8.723578442365886</v>
+        <v>16.76807592814042</v>
       </c>
       <c r="I33">
-        <v>1518.436407094838</v>
+        <v>2918.671177709238</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1330,28 +1330,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>1354.518446331894</v>
+        <v>2603.595336961307</v>
       </c>
       <c r="C34">
-        <v>0.112291826641424</v>
+        <v>0.2158423733646533</v>
       </c>
       <c r="D34">
-        <v>120.990196942084</v>
+        <v>232.5619953198141</v>
       </c>
       <c r="E34">
-        <v>29.41224519483192</v>
+        <v>56.53491441641345</v>
       </c>
       <c r="F34">
-        <v>101.3883343248202</v>
+        <v>194.8841635824388</v>
       </c>
       <c r="G34">
-        <v>44.73514002689005</v>
+        <v>85.98790388402217</v>
       </c>
       <c r="H34">
-        <v>1.744715688473177</v>
+        <v>3.353615185628084</v>
       </c>
       <c r="I34">
-        <v>1652.901370335635</v>
+        <v>3177.133771722988</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1359,25 +1359,25 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>1426.110330387491</v>
+        <v>2741.206084157989</v>
       </c>
       <c r="C35">
-        <v>0.07145843513545161</v>
+        <v>0.1373542375956885</v>
       </c>
       <c r="D35">
-        <v>86.96170405212285</v>
+        <v>167.1539341361163</v>
       </c>
       <c r="E35">
-        <v>36.09684637547554</v>
+        <v>69.38375860196199</v>
       </c>
       <c r="F35">
-        <v>53.36228122358958</v>
+        <v>102.5706124118099</v>
       </c>
       <c r="G35">
-        <v>61.51081753697383</v>
+        <v>118.2333678405305</v>
       </c>
       <c r="I35">
-        <v>1664.113438010788</v>
+        <v>3198.685111386004</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1385,25 +1385,25 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>1331.609043434102</v>
+        <v>2559.559897858364</v>
       </c>
       <c r="C36">
-        <v>0.05104173938246544</v>
+        <v>0.09811016971120602</v>
       </c>
       <c r="D36">
-        <v>90.74264770656301</v>
+        <v>174.4214964898606</v>
       </c>
       <c r="E36">
-        <v>26.73840472257447</v>
+        <v>51.39537674219405</v>
       </c>
       <c r="F36">
-        <v>74.70719371302533</v>
+        <v>143.5988573765338</v>
       </c>
       <c r="G36">
-        <v>92.26622630546075</v>
+        <v>177.3500517607957</v>
       </c>
       <c r="I36">
-        <v>1616.114557621108</v>
+        <v>3106.423790397459</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1411,25 +1411,25 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>824.7385043204763</v>
+        <v>1585.275807705826</v>
       </c>
       <c r="C37">
-        <v>0.112291826641424</v>
+        <v>0.2158423733646533</v>
       </c>
       <c r="D37">
-        <v>83.18076039768268</v>
+        <v>159.8863717823722</v>
       </c>
       <c r="E37">
-        <v>32.08608566708936</v>
+        <v>61.67445209063285</v>
       </c>
       <c r="F37">
-        <v>35.57485414905972</v>
+        <v>68.38040827453995</v>
       </c>
       <c r="G37">
-        <v>95.06217255714138</v>
+        <v>182.7242957535472</v>
       </c>
       <c r="I37">
-        <v>1070.754668918091</v>
+        <v>2058.157177980283</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1437,25 +1437,25 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>707.3278144692976</v>
+        <v>1359.594182303261</v>
       </c>
       <c r="C38">
-        <v>0.09187513088843778</v>
+        <v>0.1765983054801709</v>
       </c>
       <c r="D38">
-        <v>68.05698577992221</v>
+        <v>130.8161223673955</v>
       </c>
       <c r="E38">
-        <v>13.36920236128723</v>
+        <v>25.69768837109703</v>
       </c>
       <c r="F38">
-        <v>48.0260531012306</v>
+        <v>92.31355117062891</v>
       </c>
       <c r="G38">
-        <v>92.26622630546075</v>
+        <v>177.3500517607957</v>
       </c>
       <c r="I38">
-        <v>929.1381571480867</v>
+        <v>1785.948194278658</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1463,28 +1463,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>491.120324621395</v>
+        <v>944.0097257692674</v>
       </c>
       <c r="C39">
-        <v>0.1429168702709032</v>
+        <v>0.2747084751913769</v>
       </c>
       <c r="D39">
-        <v>41.59038019884134</v>
+        <v>79.94318589118608</v>
       </c>
       <c r="E39">
-        <v>17.3799630696734</v>
+        <v>33.40699488242613</v>
       </c>
       <c r="F39">
-        <v>28.45988331924777</v>
+        <v>54.70432661963196</v>
       </c>
       <c r="G39">
-        <v>75.49054879537695</v>
+        <v>145.1045878042874</v>
       </c>
       <c r="H39">
-        <v>1.744715688473177</v>
+        <v>3.353615185628084</v>
       </c>
       <c r="I39">
-        <v>655.9287325632786</v>
+        <v>1260.797144627618</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1492,25 +1492,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>306.413263757955</v>
+        <v>588.9739980018173</v>
       </c>
       <c r="C40">
-        <v>0.09187513088843778</v>
+        <v>0.1765983054801709</v>
       </c>
       <c r="D40">
-        <v>15.12377461776049</v>
+        <v>29.07024941497676</v>
       </c>
       <c r="E40">
-        <v>9.358441652901066</v>
+        <v>17.98838185976791</v>
       </c>
       <c r="F40">
-        <v>26.68114061179479</v>
+        <v>51.28530620590496</v>
       </c>
       <c r="G40">
-        <v>36.34730127184816</v>
+        <v>69.86517190576802</v>
       </c>
       <c r="I40">
-        <v>394.0157970431479</v>
+        <v>757.3597056937151</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1518,25 +1518,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>164.6613333278729</v>
+        <v>316.5047185523784</v>
       </c>
       <c r="C41">
-        <v>0.1429168702709032</v>
+        <v>0.2747084751913769</v>
       </c>
       <c r="D41">
-        <v>15.12377461776049</v>
+        <v>29.07024941497676</v>
       </c>
       <c r="E41">
-        <v>6.684601180643616</v>
+        <v>12.84884418554851</v>
       </c>
       <c r="F41">
-        <v>28.45988331924777</v>
+        <v>54.70432661963196</v>
       </c>
       <c r="G41">
-        <v>41.93919377520941</v>
+        <v>80.61365989127081</v>
       </c>
       <c r="I41">
-        <v>257.0117030910051</v>
+        <v>494.0165071389979</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1544,25 +1544,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>95.93312463449986</v>
+        <v>184.3984012435596</v>
       </c>
       <c r="C42">
-        <v>0.0816667830119447</v>
+        <v>0.1569762715379296</v>
       </c>
       <c r="D42">
-        <v>11.34283096332038</v>
+        <v>21.80268706123257</v>
       </c>
       <c r="E42">
-        <v>5.347680944514893</v>
+        <v>10.27907534843881</v>
       </c>
       <c r="F42">
-        <v>26.68114061179479</v>
+        <v>51.28530620590496</v>
       </c>
       <c r="G42">
-        <v>27.95946251680629</v>
+        <v>53.74243992751387</v>
       </c>
       <c r="I42">
-        <v>167.3459064539482</v>
+        <v>321.6648860581877</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1570,22 +1570,22 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>73.02372173670885</v>
+        <v>140.36296214062</v>
       </c>
       <c r="C43">
-        <v>0.06125008725895852</v>
+        <v>0.1177322036534472</v>
       </c>
       <c r="D43">
-        <v>7.561887308880247</v>
+        <v>14.53512470748838</v>
       </c>
       <c r="F43">
-        <v>17.78742707452986</v>
+        <v>34.19020413726997</v>
       </c>
       <c r="G43">
-        <v>50.32703253025131</v>
+        <v>96.73639186952495</v>
       </c>
       <c r="I43">
-        <v>148.7613187376292</v>
+        <v>285.9424150585568</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1593,25 +1593,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>55.84166956336561</v>
+        <v>107.3363828134153</v>
       </c>
       <c r="C44">
-        <v>0.03062504362947926</v>
+        <v>0.05886610182672362</v>
       </c>
       <c r="D44">
-        <v>7.561887308880247</v>
+        <v>14.53512470748838</v>
       </c>
       <c r="E44">
-        <v>1.336920236128723</v>
+        <v>2.569768837109703</v>
       </c>
       <c r="F44">
-        <v>28.45988331924777</v>
+        <v>54.70432661963196</v>
       </c>
       <c r="G44">
-        <v>64.30676378865441</v>
+        <v>123.6076118332819</v>
       </c>
       <c r="I44">
-        <v>157.5377492599062</v>
+        <v>302.812080912754</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1619,25 +1619,25 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>168.9568463712087</v>
+        <v>324.7613633841797</v>
       </c>
       <c r="C45">
-        <v>0.05104173938246544</v>
+        <v>0.09811016971120602</v>
       </c>
       <c r="D45">
-        <v>30.24754923552099</v>
+        <v>58.14049882995352</v>
       </c>
       <c r="E45">
-        <v>6.684601180643616</v>
+        <v>12.84884418554851</v>
       </c>
       <c r="F45">
-        <v>33.79611144160674</v>
+        <v>64.96138786081292</v>
       </c>
       <c r="G45">
-        <v>106.2459575638638</v>
+        <v>204.2212717245527</v>
       </c>
       <c r="I45">
-        <v>345.9821075322263</v>
+        <v>665.0314761547586</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1645,25 +1645,25 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>299.2540753523953</v>
+        <v>575.2129232821486</v>
       </c>
       <c r="D46">
-        <v>75.61887308880249</v>
+        <v>145.3512470748839</v>
       </c>
       <c r="E46">
-        <v>16.04304283354468</v>
+        <v>30.83722604531642</v>
       </c>
       <c r="F46">
-        <v>58.69850934594852</v>
+        <v>112.8276736529909</v>
       </c>
       <c r="G46">
-        <v>232.0635388894921</v>
+        <v>446.062251398365</v>
       </c>
       <c r="H46">
-        <v>5.234147065419532</v>
+        <v>10.06084555688425</v>
       </c>
       <c r="I46">
-        <v>686.9121865756026</v>
+        <v>1320.352167010589</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1671,28 +1671,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>883.4438492460655</v>
+        <v>1698.116620407109</v>
       </c>
       <c r="C47">
-        <v>0.0816667830119447</v>
+        <v>0.1569762715379296</v>
       </c>
       <c r="D47">
-        <v>86.96170405212285</v>
+        <v>167.1539341361163</v>
       </c>
       <c r="E47">
-        <v>45.45528802837659</v>
+        <v>87.37214046172987</v>
       </c>
       <c r="F47">
-        <v>126.290732229162</v>
+        <v>242.7504493746168</v>
       </c>
       <c r="G47">
-        <v>237.6554313928534</v>
+        <v>456.8107393838679</v>
       </c>
       <c r="H47">
-        <v>3.489431376946355</v>
+        <v>6.707230371256167</v>
       </c>
       <c r="I47">
-        <v>1383.378103108539</v>
+        <v>2659.068090406234</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1700,28 +1700,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>1055.264370979498</v>
+        <v>2028.382413679156</v>
       </c>
       <c r="C48">
-        <v>0.1531252181473963</v>
+        <v>0.294330509133618</v>
       </c>
       <c r="D48">
-        <v>56.71415481660183</v>
+        <v>109.0134353061628</v>
       </c>
       <c r="E48">
-        <v>29.41224519483192</v>
+        <v>56.53491441641345</v>
       </c>
       <c r="F48">
-        <v>115.6182759844441</v>
+        <v>222.2363268922548</v>
       </c>
       <c r="G48">
-        <v>176.1446138558796</v>
+        <v>338.5773715433374</v>
       </c>
       <c r="H48">
-        <v>8.723578442365886</v>
+        <v>16.76807592814042</v>
       </c>
       <c r="I48">
-        <v>1442.030364491769</v>
+        <v>2771.806868274599</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1729,28 +1729,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>1341.631907201887</v>
+        <v>2578.825402465902</v>
       </c>
       <c r="C49">
-        <v>0.04083339150597235</v>
+        <v>0.07848813576896482</v>
       </c>
       <c r="D49">
-        <v>105.8664223243235</v>
+        <v>203.4917459048373</v>
       </c>
       <c r="E49">
-        <v>26.73840472257447</v>
+        <v>51.39537674219405</v>
       </c>
       <c r="F49">
-        <v>104.9458197397262</v>
+        <v>201.7222044098928</v>
       </c>
       <c r="G49">
-        <v>159.3689363457957</v>
+        <v>306.3319075868291</v>
       </c>
       <c r="H49">
-        <v>1.744715688473177</v>
+        <v>3.353615185628084</v>
       </c>
       <c r="I49">
-        <v>1740.337039414286</v>
+        <v>3345.198740431052</v>
       </c>
     </row>
   </sheetData>

--- a/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_NOx.xlsx
+++ b/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_NOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>672.4664251794705</v>
+        <v>392.0114354534588</v>
       </c>
       <c r="C2">
-        <v>0.09462588331024731</v>
+        <v>0.05516175523202013</v>
       </c>
       <c r="D2">
-        <v>64.25340174431777</v>
+        <v>37.45624659823798</v>
       </c>
       <c r="E2">
-        <v>16.52337345730351</v>
+        <v>9.632230108443594</v>
       </c>
       <c r="F2">
-        <v>87.9359269025859</v>
+        <v>51.26187366724391</v>
       </c>
       <c r="G2">
-        <v>127.4248318655165</v>
+        <v>74.281762451836</v>
       </c>
       <c r="H2">
-        <v>10.78171611080431</v>
+        <v>6.285155438236308</v>
       </c>
       <c r="I2">
-        <v>979.4803011433089</v>
+        <v>570.9838654726885</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>485.5473037068874</v>
+        <v>283.0477305330073</v>
       </c>
       <c r="C3">
-        <v>0.07096941248268548</v>
+        <v>0.04137131642401511</v>
       </c>
       <c r="D3">
-        <v>58.41218340392526</v>
+        <v>34.05113327112543</v>
       </c>
       <c r="E3">
-        <v>5.163554205407348</v>
+        <v>3.010071908888624</v>
       </c>
       <c r="F3">
-        <v>105.7979120546737</v>
+        <v>61.67444175590283</v>
       </c>
       <c r="G3">
-        <v>105.827402735768</v>
+        <v>61.69163322271127</v>
       </c>
       <c r="H3">
-        <v>9.434001596953768</v>
+        <v>5.49951100845677</v>
       </c>
       <c r="I3">
-        <v>770.253327116098</v>
+        <v>449.0158930165162</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>575.1357583771787</v>
+        <v>335.2729382167739</v>
       </c>
       <c r="C4">
-        <v>0.04731294165512365</v>
+        <v>0.02758087761601007</v>
       </c>
       <c r="D4">
-        <v>73.0152292549066</v>
+        <v>42.56391658890679</v>
       </c>
       <c r="E4">
-        <v>9.294397569733224</v>
+        <v>5.418129435999521</v>
       </c>
       <c r="F4">
-        <v>100.3019166232621</v>
+        <v>58.47057465170008</v>
       </c>
       <c r="G4">
-        <v>103.6676598227931</v>
+        <v>60.43262029979879</v>
       </c>
       <c r="H4">
-        <v>1.347714513850538</v>
+        <v>0.7856444297795385</v>
       </c>
       <c r="I4">
-        <v>862.8099891033794</v>
+        <v>502.9714045005746</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>723.3438191897594</v>
+        <v>421.6701953726349</v>
       </c>
       <c r="C5">
-        <v>0.06308392220683155</v>
+        <v>0.03677450348801342</v>
       </c>
       <c r="D5">
-        <v>67.17401091451407</v>
+        <v>39.15880326179423</v>
       </c>
       <c r="E5">
-        <v>9.294397569733224</v>
+        <v>5.418129435999521</v>
       </c>
       <c r="F5">
-        <v>96.17992004970338</v>
+        <v>56.067674323548</v>
       </c>
       <c r="G5">
-        <v>97.18843108386858</v>
+        <v>56.65558153106137</v>
       </c>
       <c r="H5">
-        <v>1.347714513850538</v>
+        <v>0.7856444297795385</v>
       </c>
       <c r="I5">
-        <v>994.591377243636</v>
+        <v>579.7928028583054</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>737.7222131491886</v>
+        <v>430.0520188280542</v>
       </c>
       <c r="C6">
-        <v>0.1103968638619552</v>
+        <v>0.0643553811040235</v>
       </c>
       <c r="D6">
-        <v>70.0946200847103</v>
+        <v>40.86135992535053</v>
       </c>
       <c r="E6">
-        <v>10.3271084108147</v>
+        <v>6.020143817777248</v>
       </c>
       <c r="F6">
-        <v>126.4078949224673</v>
+        <v>73.68894339666312</v>
       </c>
       <c r="G6">
-        <v>107.9871456487429</v>
+        <v>62.95064614562372</v>
       </c>
       <c r="H6">
-        <v>5.390858055402153</v>
+        <v>3.142577719118154</v>
       </c>
       <c r="I6">
-        <v>1058.040237135188</v>
+        <v>616.7800452136911</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>659.1940615246126</v>
+        <v>384.2743676484564</v>
       </c>
       <c r="C7">
-        <v>0.06308392220683155</v>
+        <v>0.03677450348801342</v>
       </c>
       <c r="D7">
-        <v>87.61827510588792</v>
+        <v>51.07669990668816</v>
       </c>
       <c r="E7">
-        <v>11.35981925189616</v>
+        <v>6.622158199554971</v>
       </c>
       <c r="F7">
-        <v>138.7738846431434</v>
+        <v>80.89764438111926</v>
       </c>
       <c r="G7">
-        <v>97.18843108386858</v>
+        <v>56.65558153106137</v>
       </c>
       <c r="H7">
-        <v>21.56343222160861</v>
+        <v>12.57031087647262</v>
       </c>
       <c r="I7">
-        <v>1015.760987753224</v>
+        <v>592.1335370468407</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>726.6619101034738</v>
+        <v>423.6044623238856</v>
       </c>
       <c r="C8">
-        <v>0.07096941248268548</v>
+        <v>0.04137131642401511</v>
       </c>
       <c r="D8">
-        <v>113.9037576376543</v>
+        <v>66.39970987869459</v>
       </c>
       <c r="E8">
-        <v>12.39253009297763</v>
+        <v>7.224172581332695</v>
       </c>
       <c r="F8">
-        <v>96.17992004970338</v>
+        <v>56.067674323548</v>
       </c>
       <c r="G8">
-        <v>79.91048778006972</v>
+        <v>46.58347814776155</v>
       </c>
       <c r="H8">
-        <v>10.78171611080431</v>
+        <v>6.285155438236308</v>
       </c>
       <c r="I8">
-        <v>1039.901291187166</v>
+        <v>606.2060240098828</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>797.4478495960498</v>
+        <v>464.8688239505652</v>
       </c>
       <c r="C9">
-        <v>0.04731294165512365</v>
+        <v>0.02758087761601007</v>
       </c>
       <c r="D9">
-        <v>105.1419301270655</v>
+        <v>61.29203988802576</v>
       </c>
       <c r="E9">
-        <v>21.68692766271085</v>
+        <v>12.64230201733222</v>
       </c>
       <c r="F9">
-        <v>112.6679063439383</v>
+        <v>65.67927563615626</v>
       </c>
       <c r="G9">
-        <v>62.63254447627084</v>
+        <v>36.51137476446176</v>
       </c>
       <c r="H9">
-        <v>6.73857256925269</v>
+        <v>3.928222148897693</v>
       </c>
       <c r="I9">
-        <v>1106.363043716943</v>
+        <v>644.9496192830549</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>1135.893122794928</v>
+        <v>662.1640529781286</v>
       </c>
       <c r="C10">
-        <v>0.07096941248268548</v>
+        <v>0.04137131642401511</v>
       </c>
       <c r="D10">
-        <v>87.61827510588792</v>
+        <v>51.07669990668816</v>
       </c>
       <c r="E10">
-        <v>18.58879513946645</v>
+        <v>10.83625887199904</v>
       </c>
       <c r="F10">
-        <v>94.80592119185049</v>
+        <v>55.26670754749733</v>
       </c>
       <c r="G10">
-        <v>49.67408699842169</v>
+        <v>28.95729722698693</v>
       </c>
       <c r="H10">
-        <v>5.390858055402153</v>
+        <v>3.142577719118154</v>
       </c>
       <c r="I10">
-        <v>1392.042028698439</v>
+        <v>811.4849655668422</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,25 +699,25 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>1132.575031881214</v>
+        <v>660.2297860268779</v>
       </c>
       <c r="C11">
-        <v>0.06308392220683155</v>
+        <v>0.03677450348801342</v>
       </c>
       <c r="D11">
-        <v>73.0152292549066</v>
+        <v>42.56391658890679</v>
       </c>
       <c r="E11">
-        <v>27.88319270919967</v>
+        <v>16.25438830799856</v>
       </c>
       <c r="F11">
-        <v>54.95995431411622</v>
+        <v>32.03867104202744</v>
       </c>
       <c r="G11">
-        <v>51.83382991139656</v>
+        <v>30.2163101498994</v>
       </c>
       <c r="I11">
-        <v>1340.33032199304</v>
+        <v>781.3398466191981</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,25 +725,25 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>880.4001224389119</v>
+        <v>513.2254977318307</v>
       </c>
       <c r="C12">
-        <v>0.1182823541378091</v>
+        <v>0.06895219404002517</v>
       </c>
       <c r="D12">
-        <v>52.57096506353275</v>
+        <v>30.64601994401288</v>
       </c>
       <c r="E12">
-        <v>23.75234934487379</v>
+        <v>13.84633078088767</v>
       </c>
       <c r="F12">
-        <v>64.57794631908658</v>
+        <v>37.64543847438223</v>
       </c>
       <c r="G12">
-        <v>49.67408699842169</v>
+        <v>28.95729722698693</v>
       </c>
       <c r="I12">
-        <v>1071.093752518964</v>
+        <v>624.3895363521405</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -751,28 +751,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>705.647334316615</v>
+        <v>411.3541049659648</v>
       </c>
       <c r="C13">
-        <v>0.08674039303439338</v>
+        <v>0.05056494229601845</v>
       </c>
       <c r="D13">
-        <v>64.25340174431777</v>
+        <v>37.45624659823798</v>
       </c>
       <c r="E13">
-        <v>16.52337345730351</v>
+        <v>9.632230108443594</v>
       </c>
       <c r="F13">
-        <v>38.47196801988135</v>
+        <v>22.4270697294192</v>
       </c>
       <c r="G13">
-        <v>88.54945943196913</v>
+        <v>51.61952983941148</v>
       </c>
       <c r="H13">
-        <v>1.347714513850538</v>
+        <v>0.7856444297795385</v>
       </c>
       <c r="I13">
-        <v>914.8799918769716</v>
+        <v>533.3253906135526</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,25 +780,25 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>527.5764552806043</v>
+        <v>307.5484452488482</v>
       </c>
       <c r="C14">
-        <v>0.06308392220683155</v>
+        <v>0.03677450348801342</v>
       </c>
       <c r="D14">
-        <v>35.04731004235515</v>
+        <v>20.43067996267526</v>
       </c>
       <c r="E14">
-        <v>9.294397569733224</v>
+        <v>5.418129435999521</v>
       </c>
       <c r="F14">
-        <v>28.85397601491101</v>
+        <v>16.82030229706441</v>
       </c>
       <c r="G14">
-        <v>90.70920234494399</v>
+        <v>52.87854276232391</v>
       </c>
       <c r="I14">
-        <v>691.5444251747545</v>
+        <v>403.1328742103993</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -806,25 +806,25 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>347.2935156354503</v>
+        <v>202.4532742308981</v>
       </c>
       <c r="C15">
-        <v>0.08674039303439338</v>
+        <v>0.05056494229601845</v>
       </c>
       <c r="D15">
-        <v>35.04731004235515</v>
+        <v>20.43067996267526</v>
       </c>
       <c r="E15">
-        <v>9.294397569733224</v>
+        <v>5.418129435999521</v>
       </c>
       <c r="F15">
-        <v>34.34997144632265</v>
+        <v>20.02416940126715</v>
       </c>
       <c r="G15">
-        <v>56.15331573734627</v>
+        <v>32.73433599572434</v>
       </c>
       <c r="I15">
-        <v>482.2252508242419</v>
+        <v>281.1111539688604</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -832,25 +832,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>173.6467578177251</v>
+        <v>101.2266371154491</v>
       </c>
       <c r="C16">
-        <v>0.07096941248268548</v>
+        <v>0.04137131642401511</v>
       </c>
       <c r="D16">
-        <v>20.44426419137385</v>
+        <v>11.9178966448939</v>
       </c>
       <c r="E16">
-        <v>7.228975887570285</v>
+        <v>4.214100672444072</v>
       </c>
       <c r="F16">
-        <v>15.11398743638196</v>
+        <v>8.810634536557545</v>
       </c>
       <c r="G16">
-        <v>43.1948582594971</v>
+        <v>25.18025845824951</v>
       </c>
       <c r="I16">
-        <v>259.699813005031</v>
+        <v>151.3908987440181</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -858,25 +858,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>126.0874547211507</v>
+        <v>73.50214414752351</v>
       </c>
       <c r="C17">
-        <v>0.06308392220683155</v>
+        <v>0.03677450348801342</v>
       </c>
       <c r="D17">
-        <v>2.920609170196264</v>
+        <v>1.702556663556272</v>
       </c>
       <c r="E17">
-        <v>5.163554205407348</v>
+        <v>3.010071908888624</v>
       </c>
       <c r="F17">
-        <v>16.48798629423486</v>
+        <v>9.611601312608229</v>
       </c>
       <c r="G17">
-        <v>28.07665786867313</v>
+        <v>16.36716799786217</v>
       </c>
       <c r="I17">
-        <v>178.7993461818692</v>
+        <v>104.2303165339268</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -884,25 +884,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>74.10403040629035</v>
+        <v>43.19862857793047</v>
       </c>
       <c r="C18">
-        <v>0.1103968638619552</v>
+        <v>0.0643553811040235</v>
       </c>
       <c r="D18">
-        <v>11.68243668078505</v>
+        <v>6.810226654225088</v>
       </c>
       <c r="E18">
-        <v>3.098132523244407</v>
+        <v>1.806043145333174</v>
       </c>
       <c r="F18">
-        <v>13.73998857852905</v>
+        <v>8.00966776050686</v>
       </c>
       <c r="G18">
-        <v>28.07665786867313</v>
+        <v>16.36716799786217</v>
       </c>
       <c r="I18">
-        <v>130.8116429213839</v>
+        <v>76.25608951696178</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -910,22 +910,22 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>58.61960614228935</v>
+        <v>34.17204947209426</v>
       </c>
       <c r="C19">
-        <v>0.04731294165512365</v>
+        <v>0.02758087761601007</v>
       </c>
       <c r="D19">
-        <v>2.920609170196264</v>
+        <v>1.702556663556272</v>
       </c>
       <c r="F19">
-        <v>13.73998857852905</v>
+        <v>8.00966776050686</v>
       </c>
       <c r="G19">
-        <v>30.23640078164799</v>
+        <v>17.62618092077464</v>
       </c>
       <c r="I19">
-        <v>105.5639176143178</v>
+        <v>61.53803569454804</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -933,25 +933,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>51.98342431486037</v>
+        <v>30.30351556959303</v>
       </c>
       <c r="C20">
-        <v>0.02365647082756183</v>
+        <v>0.01379043880800503</v>
       </c>
       <c r="D20">
-        <v>11.68243668078505</v>
+        <v>6.810226654225088</v>
       </c>
       <c r="E20">
-        <v>1.032710841081469</v>
+        <v>0.6020143817777246</v>
       </c>
       <c r="F20">
-        <v>23.3579805834994</v>
+        <v>13.61643519286166</v>
       </c>
       <c r="G20">
-        <v>41.03511534652229</v>
+        <v>23.92124553533701</v>
       </c>
       <c r="I20">
-        <v>129.1153242375761</v>
+        <v>75.26722777260251</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -959,25 +959,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>107.2849395434352</v>
+        <v>62.54129809043665</v>
       </c>
       <c r="C21">
-        <v>0.02365647082756183</v>
+        <v>0.01379043880800503</v>
       </c>
       <c r="D21">
-        <v>17.52365502117758</v>
+        <v>10.21533998133763</v>
       </c>
       <c r="E21">
-        <v>3.098132523244407</v>
+        <v>1.806043145333174</v>
       </c>
       <c r="F21">
-        <v>21.98398172564648</v>
+        <v>12.81546841681098</v>
       </c>
       <c r="G21">
-        <v>92.86894525791887</v>
+        <v>54.1375556852364</v>
       </c>
       <c r="I21">
-        <v>242.7833105422501</v>
+        <v>141.5294957579628</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -985,25 +985,25 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>282.0377276657319</v>
+        <v>164.4126908563027</v>
       </c>
       <c r="C22">
-        <v>0.02365647082756183</v>
+        <v>0.01379043880800503</v>
       </c>
       <c r="D22">
-        <v>58.41218340392526</v>
+        <v>34.05113327112543</v>
       </c>
       <c r="E22">
-        <v>9.294397569733224</v>
+        <v>5.418129435999521</v>
       </c>
       <c r="F22">
-        <v>35.72397030417554</v>
+        <v>20.82513617731783</v>
       </c>
       <c r="G22">
-        <v>174.9391759509633</v>
+        <v>101.9800467559104</v>
       </c>
       <c r="I22">
-        <v>560.4311113653569</v>
+        <v>326.7009269354638</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1011,28 +1011,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>648.1337584788971</v>
+        <v>377.8268111442874</v>
       </c>
       <c r="C23">
-        <v>0.04731294165512365</v>
+        <v>0.02758087761601007</v>
       </c>
       <c r="D23">
-        <v>49.65035589333647</v>
+        <v>28.94346328045662</v>
       </c>
       <c r="E23">
-        <v>35.11216859676995</v>
+        <v>20.46848898044264</v>
       </c>
       <c r="F23">
-        <v>96.17992004970338</v>
+        <v>56.067674323548</v>
       </c>
       <c r="G23">
-        <v>159.8209755601394</v>
+        <v>93.16695629552311</v>
       </c>
       <c r="H23">
-        <v>5.390858055402153</v>
+        <v>3.142577719118154</v>
       </c>
       <c r="I23">
-        <v>994.3353495759037</v>
+        <v>579.6435526209921</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1040,28 +1040,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>838.3709708651953</v>
+        <v>488.7247830159898</v>
       </c>
       <c r="C24">
-        <v>0.05519843193097759</v>
+        <v>0.03217769055201175</v>
       </c>
       <c r="D24">
-        <v>49.65035589333647</v>
+        <v>28.94346328045662</v>
       </c>
       <c r="E24">
-        <v>21.68692766271085</v>
+        <v>12.64230201733222</v>
       </c>
       <c r="F24">
-        <v>86.56192804473301</v>
+        <v>50.4609068911932</v>
       </c>
       <c r="G24">
-        <v>129.5845747784914</v>
+        <v>75.54077537474852</v>
       </c>
       <c r="H24">
-        <v>5.390858055402153</v>
+        <v>3.142577719118154</v>
       </c>
       <c r="I24">
-        <v>1131.3008137318</v>
+        <v>659.4869859893905</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1069,28 +1069,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>985.4730013732044</v>
+        <v>574.4772845214337</v>
       </c>
       <c r="C25">
-        <v>0.03942745137926971</v>
+        <v>0.02298406468000839</v>
       </c>
       <c r="D25">
-        <v>84.69766593569166</v>
+        <v>49.37414324313187</v>
       </c>
       <c r="E25">
-        <v>19.62150598054791</v>
+        <v>11.43827325377677</v>
       </c>
       <c r="F25">
-        <v>72.82193946620396</v>
+        <v>42.45123913068633</v>
       </c>
       <c r="G25">
-        <v>103.6676598227931</v>
+        <v>60.43262029979879</v>
       </c>
       <c r="H25">
-        <v>8.08628708310323</v>
+        <v>4.713866578677232</v>
       </c>
       <c r="I25">
-        <v>1274.407487112924</v>
+        <v>742.9104110921847</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1098,28 +1098,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>802.9780011189073</v>
+        <v>468.09260220265</v>
       </c>
       <c r="C26">
-        <v>0.1261678444136631</v>
+        <v>0.07354900697602684</v>
       </c>
       <c r="D26">
-        <v>75.93583842510286</v>
+        <v>44.26647325246304</v>
       </c>
       <c r="E26">
-        <v>19.62150598054791</v>
+        <v>11.43827325377677</v>
       </c>
       <c r="F26">
-        <v>109.9199086282324</v>
+        <v>64.07734208405488</v>
       </c>
       <c r="G26">
-        <v>155.5014897341897</v>
+        <v>90.64893044969813</v>
       </c>
       <c r="H26">
-        <v>9.434001596953768</v>
+        <v>5.49951100845677</v>
       </c>
       <c r="I26">
-        <v>1173.516913328348</v>
+        <v>684.0966812580756</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1127,28 +1127,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>580.6659099000361</v>
+        <v>338.4967164688582</v>
       </c>
       <c r="C27">
-        <v>0.09462588331024731</v>
+        <v>0.05516175523202013</v>
       </c>
       <c r="D27">
-        <v>70.0946200847103</v>
+        <v>40.86135992535053</v>
       </c>
       <c r="E27">
-        <v>7.228975887570285</v>
+        <v>4.214100672444072</v>
       </c>
       <c r="F27">
-        <v>133.2778892117318</v>
+        <v>77.69377727691653</v>
       </c>
       <c r="G27">
-        <v>129.5845747784914</v>
+        <v>75.54077537474852</v>
       </c>
       <c r="H27">
-        <v>8.08628708310323</v>
+        <v>4.713866578677232</v>
       </c>
       <c r="I27">
-        <v>929.0328828289535</v>
+        <v>541.5757580522271</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1156,28 +1156,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>627.1191826920389</v>
+        <v>365.5764537863667</v>
       </c>
       <c r="C28">
-        <v>0.05519843193097759</v>
+        <v>0.03217769055201175</v>
       </c>
       <c r="D28">
-        <v>78.85644759529914</v>
+        <v>45.96902991601933</v>
       </c>
       <c r="E28">
-        <v>10.3271084108147</v>
+        <v>6.020143817777248</v>
       </c>
       <c r="F28">
-        <v>109.9199086282324</v>
+        <v>64.07734208405488</v>
       </c>
       <c r="G28">
-        <v>112.3066314746925</v>
+        <v>65.46867199144869</v>
       </c>
       <c r="H28">
-        <v>1.347714513850538</v>
+        <v>0.7856444297795385</v>
       </c>
       <c r="I28">
-        <v>939.9321917468592</v>
+        <v>547.9294637159984</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1185,28 +1185,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>692.3749706617573</v>
+        <v>403.6170371609625</v>
       </c>
       <c r="C29">
-        <v>0.08674039303439338</v>
+        <v>0.05056494229601845</v>
       </c>
       <c r="D29">
-        <v>58.41218340392526</v>
+        <v>34.05113327112543</v>
       </c>
       <c r="E29">
-        <v>9.294397569733224</v>
+        <v>5.418129435999521</v>
       </c>
       <c r="F29">
-        <v>112.6679063439383</v>
+        <v>65.67927563615626</v>
       </c>
       <c r="G29">
-        <v>77.75074486709484</v>
+        <v>45.32446522484906</v>
       </c>
       <c r="H29">
-        <v>5.390858055402153</v>
+        <v>3.142577719118154</v>
       </c>
       <c r="I29">
-        <v>955.9778012948854</v>
+        <v>557.283183390507</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1214,28 +1214,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>760.9488495451902</v>
+        <v>443.5918874868087</v>
       </c>
       <c r="C30">
-        <v>0.09462588331024731</v>
+        <v>0.05516175523202013</v>
       </c>
       <c r="D30">
-        <v>73.0152292549066</v>
+        <v>42.56391658890679</v>
       </c>
       <c r="E30">
-        <v>9.294397569733224</v>
+        <v>5.418129435999521</v>
       </c>
       <c r="F30">
-        <v>89.30992576043886</v>
+        <v>52.06284044329458</v>
       </c>
       <c r="G30">
-        <v>90.70920234494399</v>
+        <v>52.87854276232391</v>
       </c>
       <c r="H30">
-        <v>1.347714513850538</v>
+        <v>0.7856444297795385</v>
       </c>
       <c r="I30">
-        <v>1024.719944872374</v>
+        <v>597.3561229023451</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1243,28 +1243,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>712.2835161440447</v>
+        <v>415.2226388684663</v>
       </c>
       <c r="C31">
-        <v>0.07096941248268548</v>
+        <v>0.04137131642401511</v>
       </c>
       <c r="D31">
-        <v>73.0152292549066</v>
+        <v>42.56391658890679</v>
       </c>
       <c r="E31">
-        <v>8.261686728651753</v>
+        <v>4.816115054221797</v>
       </c>
       <c r="F31">
-        <v>134.6518880695847</v>
+        <v>78.49474405296723</v>
       </c>
       <c r="G31">
-        <v>86.38971651899421</v>
+        <v>50.36051691649902</v>
       </c>
       <c r="H31">
-        <v>6.73857256925269</v>
+        <v>3.928222148897693</v>
       </c>
       <c r="I31">
-        <v>1021.411578697917</v>
+        <v>595.4275249463828</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1272,28 +1272,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>806.296092032622</v>
+        <v>470.0268691539002</v>
       </c>
       <c r="C32">
-        <v>0.1025113735861012</v>
+        <v>0.05975856816802181</v>
       </c>
       <c r="D32">
-        <v>55.49157423372901</v>
+        <v>32.34857660756916</v>
       </c>
       <c r="E32">
-        <v>8.261686728651753</v>
+        <v>4.816115054221797</v>
       </c>
       <c r="F32">
-        <v>94.80592119185049</v>
+        <v>55.26670754749733</v>
       </c>
       <c r="G32">
-        <v>90.70920234494399</v>
+        <v>52.87854276232391</v>
       </c>
       <c r="H32">
-        <v>4.043143541551615</v>
+        <v>2.356933289338616</v>
       </c>
       <c r="I32">
-        <v>1059.710131446935</v>
+        <v>617.7535029830191</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1301,28 +1301,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>874.8699709160547</v>
+        <v>510.0017194797467</v>
       </c>
       <c r="C33">
-        <v>0.06308392220683155</v>
+        <v>0.03677450348801342</v>
       </c>
       <c r="D33">
-        <v>102.2213209568692</v>
+        <v>59.58948322446951</v>
       </c>
       <c r="E33">
-        <v>19.62150598054791</v>
+        <v>11.43827325377677</v>
       </c>
       <c r="F33">
-        <v>115.415904059644</v>
+        <v>67.28120918825763</v>
       </c>
       <c r="G33">
-        <v>53.99357282437144</v>
+        <v>31.47532307281186</v>
       </c>
       <c r="H33">
-        <v>6.73857256925269</v>
+        <v>3.928222148897693</v>
       </c>
       <c r="I33">
-        <v>1172.923931228947</v>
+        <v>683.7510048714481</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1330,28 +1330,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>1046.304668124637</v>
+        <v>609.9388452943618</v>
       </c>
       <c r="C34">
-        <v>0.08674039303439338</v>
+        <v>0.05056494229601845</v>
       </c>
       <c r="D34">
-        <v>93.45949344628043</v>
+        <v>54.4818132338007</v>
       </c>
       <c r="E34">
-        <v>22.71963850379231</v>
+        <v>13.24431639910994</v>
       </c>
       <c r="F34">
-        <v>78.31793489761561</v>
+        <v>45.6551062348891</v>
       </c>
       <c r="G34">
-        <v>34.55588660759772</v>
+        <v>20.14420676659959</v>
       </c>
       <c r="H34">
-        <v>1.347714513850538</v>
+        <v>0.7856444297795385</v>
       </c>
       <c r="I34">
-        <v>1276.792076486808</v>
+        <v>744.3004973008367</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1359,25 +1359,25 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>1101.606183353211</v>
+        <v>642.1766278152055</v>
       </c>
       <c r="C35">
-        <v>0.05519843193097759</v>
+        <v>0.03217769055201175</v>
       </c>
       <c r="D35">
-        <v>67.17401091451407</v>
+        <v>39.15880326179423</v>
       </c>
       <c r="E35">
-        <v>27.88319270919967</v>
+        <v>16.25438830799856</v>
       </c>
       <c r="F35">
-        <v>41.21996573558717</v>
+        <v>24.02900328152057</v>
       </c>
       <c r="G35">
-        <v>47.51434408544686</v>
+        <v>27.69828430407443</v>
       </c>
       <c r="I35">
-        <v>1285.45289522989</v>
+        <v>749.3492846611452</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1385,25 +1385,25 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>1028.608183251493</v>
+        <v>599.6227548876917</v>
       </c>
       <c r="C36">
-        <v>0.03942745137926971</v>
+        <v>0.02298406468000839</v>
       </c>
       <c r="D36">
-        <v>70.0946200847103</v>
+        <v>40.86135992535053</v>
       </c>
       <c r="E36">
-        <v>20.65421682162939</v>
+        <v>12.0402876355545</v>
       </c>
       <c r="F36">
-        <v>57.70795202982202</v>
+        <v>33.64060459412882</v>
       </c>
       <c r="G36">
-        <v>71.27151612817028</v>
+        <v>41.54742645611167</v>
       </c>
       <c r="I36">
-        <v>1248.375915767205</v>
+        <v>727.7354175635172</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1411,25 +1411,25 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>637.0734554331825</v>
+        <v>371.3792546401187</v>
       </c>
       <c r="C37">
-        <v>0.08674039303439338</v>
+        <v>0.05056494229601845</v>
       </c>
       <c r="D37">
-        <v>64.25340174431777</v>
+        <v>37.45624659823798</v>
       </c>
       <c r="E37">
-        <v>24.78506018595526</v>
+        <v>14.44834516266539</v>
       </c>
       <c r="F37">
-        <v>27.47997715705811</v>
+        <v>16.01933552101372</v>
       </c>
       <c r="G37">
-        <v>73.4312590411451</v>
+        <v>42.80643937902413</v>
       </c>
       <c r="I37">
-        <v>827.109893954693</v>
+        <v>482.160186243356</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1437,25 +1437,25 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>546.3789704583199</v>
+        <v>318.5092913059352</v>
       </c>
       <c r="C38">
-        <v>0.07096941248268548</v>
+        <v>0.04137131642401511</v>
       </c>
       <c r="D38">
-        <v>52.57096506353275</v>
+        <v>30.64601994401288</v>
       </c>
       <c r="E38">
-        <v>10.3271084108147</v>
+        <v>6.020143817777248</v>
       </c>
       <c r="F38">
-        <v>37.09796916202844</v>
+        <v>21.62610295336852</v>
       </c>
       <c r="G38">
-        <v>71.27151612817028</v>
+        <v>41.54742645611167</v>
       </c>
       <c r="I38">
-        <v>717.7174986353489</v>
+        <v>418.3903557936296</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1463,28 +1463,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>379.3683944680239</v>
+        <v>221.1511880929875</v>
       </c>
       <c r="C39">
-        <v>0.1103968638619552</v>
+        <v>0.0643553811040235</v>
       </c>
       <c r="D39">
-        <v>32.12670087215889</v>
+        <v>18.72812329911899</v>
       </c>
       <c r="E39">
-        <v>13.4252409340591</v>
+        <v>7.82618696311042</v>
       </c>
       <c r="F39">
-        <v>21.98398172564648</v>
+        <v>12.81546841681098</v>
       </c>
       <c r="G39">
-        <v>58.31305865032112</v>
+        <v>33.99334891863682</v>
       </c>
       <c r="H39">
-        <v>1.347714513850538</v>
+        <v>0.7856444297795385</v>
       </c>
       <c r="I39">
-        <v>506.675488027922</v>
+        <v>295.3643155015483</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1492,25 +1492,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>236.6904851783005</v>
+        <v>137.9777091892108</v>
       </c>
       <c r="C40">
-        <v>0.07096941248268548</v>
+        <v>0.04137131642401511</v>
       </c>
       <c r="D40">
-        <v>11.68243668078505</v>
+        <v>6.810226654225088</v>
       </c>
       <c r="E40">
-        <v>7.228975887570285</v>
+        <v>4.214100672444072</v>
       </c>
       <c r="F40">
-        <v>20.60998286779358</v>
+        <v>12.01450164076029</v>
       </c>
       <c r="G40">
-        <v>28.07665786867313</v>
+        <v>16.36716799786217</v>
       </c>
       <c r="I40">
-        <v>304.3595078956052</v>
+        <v>177.4250774709264</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1518,25 +1518,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>127.1934850257222</v>
+        <v>74.14689979794035</v>
       </c>
       <c r="C41">
-        <v>0.1103968638619552</v>
+        <v>0.0643553811040235</v>
       </c>
       <c r="D41">
-        <v>11.68243668078505</v>
+        <v>6.810226654225088</v>
       </c>
       <c r="E41">
-        <v>5.163554205407348</v>
+        <v>3.010071908888624</v>
       </c>
       <c r="F41">
-        <v>21.98398172564648</v>
+        <v>12.81546841681098</v>
       </c>
       <c r="G41">
-        <v>32.39614369462286</v>
+        <v>18.88519384368713</v>
       </c>
       <c r="I41">
-        <v>198.5299981960459</v>
+        <v>115.7322160026562</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1544,25 +1544,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>74.10403040629035</v>
+        <v>43.19862857793047</v>
       </c>
       <c r="C42">
-        <v>0.06308392220683155</v>
+        <v>0.03677450348801342</v>
       </c>
       <c r="D42">
-        <v>8.761827510588788</v>
+        <v>5.107669990668816</v>
       </c>
       <c r="E42">
-        <v>4.130843364325877</v>
+        <v>2.408057527110898</v>
       </c>
       <c r="F42">
-        <v>20.60998286779358</v>
+        <v>12.01450164076029</v>
       </c>
       <c r="G42">
-        <v>21.59742912974855</v>
+        <v>12.59012922912475</v>
       </c>
       <c r="I42">
-        <v>129.267197200954</v>
+        <v>75.35576146908323</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1570,22 +1570,22 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>56.40754553314638</v>
+        <v>32.88253817126049</v>
       </c>
       <c r="C43">
-        <v>0.04731294165512365</v>
+        <v>0.02758087761601007</v>
       </c>
       <c r="D43">
-        <v>5.841218340392527</v>
+        <v>3.405113327112544</v>
       </c>
       <c r="F43">
-        <v>13.73998857852905</v>
+        <v>8.00966776050686</v>
       </c>
       <c r="G43">
-        <v>38.87537243354742</v>
+        <v>22.66223261242453</v>
       </c>
       <c r="I43">
-        <v>114.9114378272705</v>
+        <v>66.98713274892043</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1593,25 +1593,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>43.13518187828839</v>
+        <v>25.14547036625805</v>
       </c>
       <c r="C44">
-        <v>0.02365647082756183</v>
+        <v>0.01379043880800503</v>
       </c>
       <c r="D44">
-        <v>5.841218340392527</v>
+        <v>3.405113327112544</v>
       </c>
       <c r="E44">
-        <v>1.032710841081469</v>
+        <v>0.6020143817777246</v>
       </c>
       <c r="F44">
-        <v>21.98398172564648</v>
+        <v>12.81546841681098</v>
       </c>
       <c r="G44">
-        <v>49.67408699842169</v>
+        <v>28.95729722698693</v>
       </c>
       <c r="I44">
-        <v>121.6908362546581</v>
+        <v>70.93915415775423</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1619,25 +1619,25 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>130.5115759394366</v>
+        <v>76.08116674919098</v>
       </c>
       <c r="C45">
-        <v>0.03942745137926971</v>
+        <v>0.02298406468000839</v>
       </c>
       <c r="D45">
-        <v>23.36487336157011</v>
+        <v>13.62045330845018</v>
       </c>
       <c r="E45">
-        <v>5.163554205407348</v>
+        <v>3.010071908888624</v>
       </c>
       <c r="F45">
-        <v>26.10597829920521</v>
+        <v>15.21836874496303</v>
       </c>
       <c r="G45">
-        <v>82.07023069304458</v>
+        <v>47.84249107067402</v>
       </c>
       <c r="I45">
-        <v>267.2556399500431</v>
+        <v>155.7955358468468</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1645,25 +1645,25 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>231.160333655443</v>
+        <v>134.7539309371264</v>
       </c>
       <c r="D46">
-        <v>58.41218340392526</v>
+        <v>34.05113327112543</v>
       </c>
       <c r="E46">
-        <v>12.39253009297763</v>
+        <v>7.224172581332695</v>
       </c>
       <c r="F46">
-        <v>45.34196230914589</v>
+        <v>26.43190360967262</v>
       </c>
       <c r="G46">
-        <v>179.2586617769131</v>
+        <v>104.4980726017354</v>
       </c>
       <c r="H46">
-        <v>4.043143541551615</v>
+        <v>2.356933289338616</v>
       </c>
       <c r="I46">
-        <v>530.6088147799567</v>
+        <v>309.3161462903311</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1671,28 +1671,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>682.420697920614</v>
+        <v>397.8142363072106</v>
       </c>
       <c r="C47">
-        <v>0.06308392220683155</v>
+        <v>0.03677450348801342</v>
       </c>
       <c r="D47">
-        <v>67.17401091451407</v>
+        <v>39.15880326179423</v>
       </c>
       <c r="E47">
-        <v>35.11216859676995</v>
+        <v>20.46848898044264</v>
       </c>
       <c r="F47">
-        <v>97.55391890755624</v>
+        <v>56.86864109959871</v>
       </c>
       <c r="G47">
-        <v>183.5781476028627</v>
+        <v>107.0160984475604</v>
       </c>
       <c r="H47">
-        <v>2.695429027701076</v>
+        <v>1.571288859559077</v>
       </c>
       <c r="I47">
-        <v>1068.597456892225</v>
+        <v>622.9343314596537</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1700,28 +1700,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>815.1443344691936</v>
+        <v>475.1849143572353</v>
       </c>
       <c r="C48">
-        <v>0.1182823541378091</v>
+        <v>0.06895219404002517</v>
       </c>
       <c r="D48">
-        <v>43.80913755294396</v>
+        <v>25.53834995334408</v>
       </c>
       <c r="E48">
-        <v>22.71963850379231</v>
+        <v>13.24431639910994</v>
       </c>
       <c r="F48">
-        <v>89.30992576043886</v>
+        <v>52.06284044329458</v>
       </c>
       <c r="G48">
-        <v>136.063803517416</v>
+        <v>79.3178141434859</v>
       </c>
       <c r="H48">
-        <v>6.73857256925269</v>
+        <v>3.928222148897693</v>
       </c>
       <c r="I48">
-        <v>1113.903694727175</v>
+        <v>649.3454096394075</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1729,28 +1729,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>1036.350395383493</v>
+        <v>604.1360444406098</v>
       </c>
       <c r="C49">
-        <v>0.03154196110341578</v>
+        <v>0.01838725174400671</v>
       </c>
       <c r="D49">
-        <v>81.77705676549542</v>
+        <v>47.67158657957559</v>
       </c>
       <c r="E49">
-        <v>20.65421682162939</v>
+        <v>12.0402876355545</v>
       </c>
       <c r="F49">
-        <v>81.06593261332144</v>
+        <v>47.25703978699047</v>
       </c>
       <c r="G49">
-        <v>123.1053460395669</v>
+        <v>71.76373660601105</v>
       </c>
       <c r="H49">
-        <v>1.347714513850538</v>
+        <v>0.7856444297795385</v>
       </c>
       <c r="I49">
-        <v>1344.332204098461</v>
+        <v>783.6727267302649</v>
       </c>
     </row>
   </sheetData>

--- a/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_NOx.xlsx
+++ b/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_NOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>392.0114354534588</v>
+        <v>157.8896987330687</v>
       </c>
       <c r="C2">
-        <v>0.05516175523202013</v>
+        <v>0.09462588331024731</v>
       </c>
       <c r="D2">
-        <v>37.45624659823798</v>
+        <v>63.87562447630219</v>
       </c>
       <c r="E2">
-        <v>9.632230108443594</v>
+        <v>16.52337345730351</v>
       </c>
       <c r="F2">
-        <v>51.26187366724391</v>
+        <v>87.13328396908723</v>
       </c>
       <c r="G2">
-        <v>74.281762451836</v>
+        <v>126.5687752359137</v>
       </c>
       <c r="H2">
-        <v>6.285155438236308</v>
+        <v>10.78171611080431</v>
       </c>
       <c r="I2">
-        <v>570.9838654726885</v>
+        <v>462.86709786579</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>283.0477305330073</v>
+        <v>114.0025949733835</v>
       </c>
       <c r="C3">
-        <v>0.04137131642401511</v>
+        <v>0.07096941248268548</v>
       </c>
       <c r="D3">
-        <v>34.05113327112543</v>
+        <v>58.06874952391105</v>
       </c>
       <c r="E3">
-        <v>3.010071908888624</v>
+        <v>5.163554205407348</v>
       </c>
       <c r="F3">
-        <v>61.67444175590283</v>
+        <v>104.8322322753081</v>
       </c>
       <c r="G3">
-        <v>61.69163322271127</v>
+        <v>105.1164404501657</v>
       </c>
       <c r="H3">
-        <v>5.49951100845677</v>
+        <v>9.434001596953768</v>
       </c>
       <c r="I3">
-        <v>449.0158930165162</v>
+        <v>396.6885424376121</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>335.2729382167739</v>
+        <v>135.0372423374928</v>
       </c>
       <c r="C4">
-        <v>0.02758087761601007</v>
+        <v>0.04731294165512365</v>
       </c>
       <c r="D4">
-        <v>42.56391658890679</v>
+        <v>72.58593690488883</v>
       </c>
       <c r="E4">
-        <v>5.418129435999521</v>
+        <v>9.294397569733224</v>
       </c>
       <c r="F4">
-        <v>58.47057465170008</v>
+        <v>99.38640202724015</v>
       </c>
       <c r="G4">
-        <v>60.43262029979879</v>
+        <v>102.9712069715908</v>
       </c>
       <c r="H4">
-        <v>0.7856444297795385</v>
+        <v>1.347714513850538</v>
       </c>
       <c r="I4">
-        <v>502.9714045005746</v>
+        <v>420.6702132664515</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>421.6701953726349</v>
+        <v>169.8353009398468</v>
       </c>
       <c r="C5">
-        <v>0.03677450348801342</v>
+        <v>0.06308392220683155</v>
       </c>
       <c r="D5">
-        <v>39.15880326179423</v>
+        <v>66.77906195249774</v>
       </c>
       <c r="E5">
-        <v>5.418129435999521</v>
+        <v>9.294397569733224</v>
       </c>
       <c r="F5">
-        <v>56.067674323548</v>
+        <v>95.30202934118921</v>
       </c>
       <c r="G5">
-        <v>56.65558153106137</v>
+        <v>96.53550653586639</v>
       </c>
       <c r="H5">
-        <v>0.7856444297795385</v>
+        <v>1.347714513850538</v>
       </c>
       <c r="I5">
-        <v>579.7928028583054</v>
+        <v>439.1570947751907</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>430.0520188280542</v>
+        <v>173.2112319982841</v>
       </c>
       <c r="C6">
-        <v>0.0643553811040235</v>
+        <v>0.1103968638619552</v>
       </c>
       <c r="D6">
-        <v>40.86135992535053</v>
+        <v>69.68249942869326</v>
       </c>
       <c r="E6">
-        <v>6.020143817777248</v>
+        <v>10.3271084108147</v>
       </c>
       <c r="F6">
-        <v>73.68894339666312</v>
+        <v>125.2540957055629</v>
       </c>
       <c r="G6">
-        <v>62.95064614562372</v>
+        <v>107.2616739287405</v>
       </c>
       <c r="H6">
-        <v>3.142577719118154</v>
+        <v>5.390858055402153</v>
       </c>
       <c r="I6">
-        <v>616.7800452136911</v>
+        <v>491.2378643913596</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>384.2743676484564</v>
+        <v>154.7734546791266</v>
       </c>
       <c r="C7">
-        <v>0.03677450348801342</v>
+        <v>0.06308392220683155</v>
       </c>
       <c r="D7">
-        <v>51.07669990668816</v>
+        <v>87.10312428586657</v>
       </c>
       <c r="E7">
-        <v>6.622158199554971</v>
+        <v>11.35981925189616</v>
       </c>
       <c r="F7">
-        <v>80.89764438111926</v>
+        <v>137.5072137637158</v>
       </c>
       <c r="G7">
-        <v>56.65558153106137</v>
+        <v>96.53550653586639</v>
       </c>
       <c r="H7">
-        <v>12.57031087647262</v>
+        <v>21.56343222160861</v>
       </c>
       <c r="I7">
-        <v>592.1335370468407</v>
+        <v>508.9056346602869</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>423.6044623238856</v>
+        <v>170.6143619533324</v>
       </c>
       <c r="C8">
-        <v>0.04137131642401511</v>
+        <v>0.07096941248268548</v>
       </c>
       <c r="D8">
-        <v>66.39970987869459</v>
+        <v>113.2340615716265</v>
       </c>
       <c r="E8">
-        <v>7.224172581332695</v>
+        <v>12.39253009297763</v>
       </c>
       <c r="F8">
-        <v>56.067674323548</v>
+        <v>95.30202934118921</v>
       </c>
       <c r="G8">
-        <v>46.58347814776155</v>
+        <v>79.37363870726796</v>
       </c>
       <c r="H8">
-        <v>6.285155438236308</v>
+        <v>10.78171611080431</v>
       </c>
       <c r="I8">
-        <v>606.2060240098828</v>
+        <v>481.7693071896807</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>464.8688239505652</v>
+        <v>187.2343302410238</v>
       </c>
       <c r="C9">
-        <v>0.02758087761601007</v>
+        <v>0.04731294165512365</v>
       </c>
       <c r="D9">
-        <v>61.29203988802576</v>
+        <v>104.5237491430399</v>
       </c>
       <c r="E9">
-        <v>12.64230201733222</v>
+        <v>21.68692766271085</v>
       </c>
       <c r="F9">
-        <v>65.67927563615626</v>
+        <v>111.639520085393</v>
       </c>
       <c r="G9">
-        <v>36.51137476446176</v>
+        <v>62.21177087866946</v>
       </c>
       <c r="H9">
-        <v>3.928222148897693</v>
+        <v>6.73857256925269</v>
       </c>
       <c r="I9">
-        <v>644.9496192830549</v>
+        <v>494.0821835217449</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>662.1640529781286</v>
+        <v>266.6985536165484</v>
       </c>
       <c r="C10">
-        <v>0.04137131642401511</v>
+        <v>0.07096941248268548</v>
       </c>
       <c r="D10">
-        <v>51.07669990668816</v>
+        <v>87.10312428586657</v>
       </c>
       <c r="E10">
-        <v>10.83625887199904</v>
+        <v>18.58879513946645</v>
       </c>
       <c r="F10">
-        <v>55.26670754749733</v>
+        <v>93.94057177917223</v>
       </c>
       <c r="G10">
-        <v>28.95729722698693</v>
+        <v>49.34037000722059</v>
       </c>
       <c r="H10">
-        <v>3.142577719118154</v>
+        <v>5.390858055402153</v>
       </c>
       <c r="I10">
-        <v>811.4849655668422</v>
+        <v>521.1332422961591</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,25 +699,25 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>660.2297860268779</v>
+        <v>265.9194926030631</v>
       </c>
       <c r="C11">
-        <v>0.03677450348801342</v>
+        <v>0.06308392220683155</v>
       </c>
       <c r="D11">
-        <v>42.56391658890679</v>
+        <v>72.58593690488883</v>
       </c>
       <c r="E11">
-        <v>16.25438830799856</v>
+        <v>27.88319270919967</v>
       </c>
       <c r="F11">
-        <v>32.03867104202744</v>
+        <v>54.45830248067954</v>
       </c>
       <c r="G11">
-        <v>30.2163101498994</v>
+        <v>51.48560348579542</v>
       </c>
       <c r="I11">
-        <v>781.3398466191981</v>
+        <v>472.3956121058334</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,25 +725,25 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>513.2254977318307</v>
+        <v>206.7108555781622</v>
       </c>
       <c r="C12">
-        <v>0.06895219404002517</v>
+        <v>0.1182823541378091</v>
       </c>
       <c r="D12">
-        <v>30.64601994401288</v>
+        <v>52.26187457151997</v>
       </c>
       <c r="E12">
-        <v>13.84633078088767</v>
+        <v>23.75234934487379</v>
       </c>
       <c r="F12">
-        <v>37.64543847438223</v>
+        <v>63.98850541479845</v>
       </c>
       <c r="G12">
-        <v>28.95729722698693</v>
+        <v>49.34037000722059</v>
       </c>
       <c r="I12">
-        <v>624.3895363521405</v>
+        <v>396.1722372707129</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -751,28 +751,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>411.3541049659648</v>
+        <v>165.680308867924</v>
       </c>
       <c r="C13">
-        <v>0.05056494229601845</v>
+        <v>0.08674039303439338</v>
       </c>
       <c r="D13">
-        <v>37.45624659823798</v>
+        <v>63.87562447630219</v>
       </c>
       <c r="E13">
-        <v>9.632230108443594</v>
+        <v>16.52337345730351</v>
       </c>
       <c r="F13">
-        <v>22.4270697294192</v>
+        <v>38.12081173647568</v>
       </c>
       <c r="G13">
-        <v>51.61952983941148</v>
+        <v>87.95457262156721</v>
       </c>
       <c r="H13">
-        <v>0.7856444297795385</v>
+        <v>1.347714513850538</v>
       </c>
       <c r="I13">
-        <v>533.3253906135526</v>
+        <v>373.5891460664575</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,25 +780,25 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>307.5484452488482</v>
+        <v>123.8707011442002</v>
       </c>
       <c r="C14">
-        <v>0.03677450348801342</v>
+        <v>0.06308392220683155</v>
       </c>
       <c r="D14">
-        <v>20.43067996267526</v>
+        <v>34.84124971434663</v>
       </c>
       <c r="E14">
-        <v>5.418129435999521</v>
+        <v>9.294397569733224</v>
       </c>
       <c r="F14">
-        <v>16.82030229706441</v>
+        <v>28.59060880235675</v>
       </c>
       <c r="G14">
-        <v>52.87854276232391</v>
+        <v>90.099806100142</v>
       </c>
       <c r="I14">
-        <v>403.1328742103993</v>
+        <v>286.7598472529857</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -806,25 +806,25 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>202.4532742308981</v>
+        <v>81.54171941148611</v>
       </c>
       <c r="C15">
-        <v>0.05056494229601845</v>
+        <v>0.08674039303439338</v>
       </c>
       <c r="D15">
-        <v>20.43067996267526</v>
+        <v>34.84124971434663</v>
       </c>
       <c r="E15">
-        <v>5.418129435999521</v>
+        <v>9.294397569733224</v>
       </c>
       <c r="F15">
-        <v>20.02416940126715</v>
+        <v>34.03643905042473</v>
       </c>
       <c r="G15">
-        <v>32.73433599572434</v>
+        <v>55.77607044294504</v>
       </c>
       <c r="I15">
-        <v>281.1111539688604</v>
+        <v>215.5766165819701</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -832,25 +832,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>101.2266371154491</v>
+        <v>40.77085970574306</v>
       </c>
       <c r="C16">
-        <v>0.04137131642401511</v>
+        <v>0.07096941248268548</v>
       </c>
       <c r="D16">
-        <v>11.9178966448939</v>
+        <v>20.32406233336888</v>
       </c>
       <c r="E16">
-        <v>4.214100672444072</v>
+        <v>7.228975887570285</v>
       </c>
       <c r="F16">
-        <v>8.810634536557545</v>
+        <v>14.97603318218687</v>
       </c>
       <c r="G16">
-        <v>25.18025845824951</v>
+        <v>42.90466957149616</v>
       </c>
       <c r="I16">
-        <v>151.3908987440181</v>
+        <v>126.2755700928479</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -858,25 +858,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>73.50214414752351</v>
+        <v>29.60431851245035</v>
       </c>
       <c r="C17">
-        <v>0.03677450348801342</v>
+        <v>0.06308392220683155</v>
       </c>
       <c r="D17">
-        <v>1.702556663556272</v>
+        <v>2.903437476195553</v>
       </c>
       <c r="E17">
-        <v>3.010071908888624</v>
+        <v>5.163554205407348</v>
       </c>
       <c r="F17">
-        <v>9.611601312608229</v>
+        <v>16.33749074420386</v>
       </c>
       <c r="G17">
-        <v>16.36716799786217</v>
+        <v>27.88803522147252</v>
       </c>
       <c r="I17">
-        <v>104.2303165339268</v>
+        <v>81.95992008193647</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -884,25 +884,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>43.19862857793047</v>
+        <v>17.39902930117697</v>
       </c>
       <c r="C18">
-        <v>0.0643553811040235</v>
+        <v>0.1103968638619552</v>
       </c>
       <c r="D18">
-        <v>6.810226654225088</v>
+        <v>11.61374990478221</v>
       </c>
       <c r="E18">
-        <v>1.806043145333174</v>
+        <v>3.098132523244407</v>
       </c>
       <c r="F18">
-        <v>8.00966776050686</v>
+        <v>13.61457562016989</v>
       </c>
       <c r="G18">
-        <v>16.36716799786217</v>
+        <v>27.88803522147252</v>
       </c>
       <c r="I18">
-        <v>76.25608951696178</v>
+        <v>73.72391943470795</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -910,22 +910,22 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>34.17204947209426</v>
+        <v>13.76341123824446</v>
       </c>
       <c r="C19">
-        <v>0.02758087761601007</v>
+        <v>0.04731294165512365</v>
       </c>
       <c r="D19">
-        <v>1.702556663556272</v>
+        <v>2.903437476195553</v>
       </c>
       <c r="F19">
-        <v>8.00966776050686</v>
+        <v>13.61457562016989</v>
       </c>
       <c r="G19">
-        <v>17.62618092077464</v>
+        <v>30.03326870004733</v>
       </c>
       <c r="I19">
-        <v>61.53803569454804</v>
+        <v>60.36200597631235</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -933,25 +933,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>30.30351556959303</v>
+        <v>12.20528921127339</v>
       </c>
       <c r="C20">
-        <v>0.01379043880800503</v>
+        <v>0.02365647082756183</v>
       </c>
       <c r="D20">
-        <v>6.810226654225088</v>
+        <v>11.61374990478221</v>
       </c>
       <c r="E20">
-        <v>0.6020143817777246</v>
+        <v>1.032710841081469</v>
       </c>
       <c r="F20">
-        <v>13.61643519286166</v>
+        <v>23.14477855428879</v>
       </c>
       <c r="G20">
-        <v>23.92124553533701</v>
+        <v>40.75943609292137</v>
       </c>
       <c r="I20">
-        <v>75.26722777260251</v>
+        <v>88.77962107517479</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -959,25 +959,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>62.54129809043665</v>
+        <v>25.18963943603233</v>
       </c>
       <c r="C21">
-        <v>0.01379043880800503</v>
+        <v>0.02365647082756183</v>
       </c>
       <c r="D21">
-        <v>10.21533998133763</v>
+        <v>17.42062485717332</v>
       </c>
       <c r="E21">
-        <v>1.806043145333174</v>
+        <v>3.098132523244407</v>
       </c>
       <c r="F21">
-        <v>12.81546841681098</v>
+        <v>21.78332099227181</v>
       </c>
       <c r="G21">
-        <v>54.1375556852364</v>
+        <v>92.24503957871678</v>
       </c>
       <c r="I21">
-        <v>141.5294957579628</v>
+        <v>159.7604138582662</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -985,25 +985,25 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>164.4126908563027</v>
+        <v>66.22018614627058</v>
       </c>
       <c r="C22">
-        <v>0.01379043880800503</v>
+        <v>0.02365647082756183</v>
       </c>
       <c r="D22">
-        <v>34.05113327112543</v>
+        <v>58.06874952391105</v>
       </c>
       <c r="E22">
-        <v>5.418129435999521</v>
+        <v>9.294397569733224</v>
       </c>
       <c r="F22">
-        <v>20.82513617731783</v>
+        <v>35.39789661244171</v>
       </c>
       <c r="G22">
-        <v>101.9800467559104</v>
+        <v>173.7639117645594</v>
       </c>
       <c r="I22">
-        <v>326.7009269354638</v>
+        <v>342.7687980877436</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1011,28 +1011,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>377.8268111442874</v>
+        <v>152.1765846341747</v>
       </c>
       <c r="C23">
-        <v>0.02758087761601007</v>
+        <v>0.04731294165512365</v>
       </c>
       <c r="D23">
-        <v>28.94346328045662</v>
+        <v>49.35843709532438</v>
       </c>
       <c r="E23">
-        <v>20.46848898044264</v>
+        <v>35.11216859676995</v>
       </c>
       <c r="F23">
-        <v>56.067674323548</v>
+        <v>95.30202934118921</v>
       </c>
       <c r="G23">
-        <v>93.16695629552311</v>
+        <v>158.7472774145359</v>
       </c>
       <c r="H23">
-        <v>3.142577719118154</v>
+        <v>5.390858055402153</v>
       </c>
       <c r="I23">
-        <v>579.6435526209921</v>
+        <v>496.1346680790514</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1040,28 +1040,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>488.7247830159898</v>
+        <v>196.8427494073453</v>
       </c>
       <c r="C24">
-        <v>0.03217769055201175</v>
+        <v>0.05519843193097759</v>
       </c>
       <c r="D24">
-        <v>28.94346328045662</v>
+        <v>49.35843709532438</v>
       </c>
       <c r="E24">
-        <v>12.64230201733222</v>
+        <v>21.68692766271085</v>
       </c>
       <c r="F24">
-        <v>50.4609068911932</v>
+        <v>85.77182640707029</v>
       </c>
       <c r="G24">
-        <v>75.54077537474852</v>
+        <v>128.7140087144886</v>
       </c>
       <c r="H24">
-        <v>3.142577719118154</v>
+        <v>5.390858055402153</v>
       </c>
       <c r="I24">
-        <v>659.4869859893905</v>
+        <v>487.8200057742726</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1069,28 +1069,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>574.4772845214337</v>
+        <v>231.3811210052042</v>
       </c>
       <c r="C25">
-        <v>0.02298406468000839</v>
+        <v>0.03942745137926971</v>
       </c>
       <c r="D25">
-        <v>49.37414324313187</v>
+        <v>84.19968680967106</v>
       </c>
       <c r="E25">
-        <v>11.43827325377677</v>
+        <v>19.62150598054791</v>
       </c>
       <c r="F25">
-        <v>42.45123913068633</v>
+        <v>72.15725078690043</v>
       </c>
       <c r="G25">
-        <v>60.43262029979879</v>
+        <v>102.9712069715908</v>
       </c>
       <c r="H25">
-        <v>4.713866578677232</v>
+        <v>8.08628708310323</v>
       </c>
       <c r="I25">
-        <v>742.9104110921847</v>
+        <v>518.4564860883969</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1098,28 +1098,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>468.09260220265</v>
+        <v>188.5327652634997</v>
       </c>
       <c r="C26">
-        <v>0.07354900697602684</v>
+        <v>0.1261678444136631</v>
       </c>
       <c r="D26">
-        <v>44.26647325246304</v>
+        <v>75.48937438108437</v>
       </c>
       <c r="E26">
-        <v>11.43827325377677</v>
+        <v>19.62150598054791</v>
       </c>
       <c r="F26">
-        <v>64.07734208405488</v>
+        <v>108.9166049613591</v>
       </c>
       <c r="G26">
-        <v>90.64893044969813</v>
+        <v>154.4568104573863</v>
       </c>
       <c r="H26">
-        <v>5.49951100845677</v>
+        <v>9.434001596953768</v>
       </c>
       <c r="I26">
-        <v>684.0966812580756</v>
+        <v>556.5772304852449</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1127,28 +1127,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>338.4967164688582</v>
+        <v>136.3356773599688</v>
       </c>
       <c r="C27">
-        <v>0.05516175523202013</v>
+        <v>0.09462588331024731</v>
       </c>
       <c r="D27">
-        <v>40.86135992535053</v>
+        <v>69.68249942869326</v>
       </c>
       <c r="E27">
-        <v>4.214100672444072</v>
+        <v>7.228975887570285</v>
       </c>
       <c r="F27">
-        <v>77.69377727691653</v>
+        <v>132.0613835156479</v>
       </c>
       <c r="G27">
-        <v>75.54077537474852</v>
+        <v>128.7140087144886</v>
       </c>
       <c r="H27">
-        <v>4.713866578677232</v>
+        <v>8.08628708310323</v>
       </c>
       <c r="I27">
-        <v>541.5757580522271</v>
+        <v>482.2034578727823</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1156,28 +1156,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>365.5764537863667</v>
+        <v>147.2425315487663</v>
       </c>
       <c r="C28">
-        <v>0.03217769055201175</v>
+        <v>0.05519843193097759</v>
       </c>
       <c r="D28">
-        <v>45.96902991601933</v>
+        <v>78.39281185727994</v>
       </c>
       <c r="E28">
-        <v>6.020143817777248</v>
+        <v>10.3271084108147</v>
       </c>
       <c r="F28">
-        <v>64.07734208405488</v>
+        <v>108.9166049613591</v>
       </c>
       <c r="G28">
-        <v>65.46867199144869</v>
+        <v>111.5521408858901</v>
       </c>
       <c r="H28">
-        <v>0.7856444297795385</v>
+        <v>1.347714513850538</v>
       </c>
       <c r="I28">
-        <v>547.9294637159984</v>
+        <v>457.8341106098916</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1185,28 +1185,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>403.6170371609625</v>
+        <v>162.5640648139819</v>
       </c>
       <c r="C29">
-        <v>0.05056494229601845</v>
+        <v>0.08674039303439338</v>
       </c>
       <c r="D29">
-        <v>34.05113327112543</v>
+        <v>58.06874952391105</v>
       </c>
       <c r="E29">
-        <v>5.418129435999521</v>
+        <v>9.294397569733224</v>
       </c>
       <c r="F29">
-        <v>65.67927563615626</v>
+        <v>111.639520085393</v>
       </c>
       <c r="G29">
-        <v>45.32446522484906</v>
+        <v>77.22840522869313</v>
       </c>
       <c r="H29">
-        <v>3.142577719118154</v>
+        <v>5.390858055402153</v>
       </c>
       <c r="I29">
-        <v>557.283183390507</v>
+        <v>424.2727356701489</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1214,28 +1214,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>443.5918874868087</v>
+        <v>178.6646590926829</v>
       </c>
       <c r="C30">
-        <v>0.05516175523202013</v>
+        <v>0.09462588331024731</v>
       </c>
       <c r="D30">
-        <v>42.56391658890679</v>
+        <v>72.58593690488883</v>
       </c>
       <c r="E30">
-        <v>5.418129435999521</v>
+        <v>9.294397569733224</v>
       </c>
       <c r="F30">
-        <v>52.06284044329458</v>
+        <v>88.49474153110427</v>
       </c>
       <c r="G30">
-        <v>52.87854276232391</v>
+        <v>90.099806100142</v>
       </c>
       <c r="H30">
-        <v>0.7856444297795385</v>
+        <v>1.347714513850538</v>
       </c>
       <c r="I30">
-        <v>597.3561229023451</v>
+        <v>440.581881595712</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1243,28 +1243,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>415.2226388684663</v>
+        <v>167.2384308948949</v>
       </c>
       <c r="C31">
-        <v>0.04137131642401511</v>
+        <v>0.07096941248268548</v>
       </c>
       <c r="D31">
-        <v>42.56391658890679</v>
+        <v>72.58593690488883</v>
       </c>
       <c r="E31">
-        <v>4.816115054221797</v>
+        <v>8.261686728651753</v>
       </c>
       <c r="F31">
-        <v>78.49474405296723</v>
+        <v>133.4228410776648</v>
       </c>
       <c r="G31">
-        <v>50.36051691649902</v>
+        <v>85.80933914299231</v>
       </c>
       <c r="H31">
-        <v>3.928222148897693</v>
+        <v>6.73857256925269</v>
       </c>
       <c r="I31">
-        <v>595.4275249463828</v>
+        <v>474.127776730828</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1272,28 +1272,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>470.0268691539002</v>
+        <v>189.3118262769852</v>
       </c>
       <c r="C32">
-        <v>0.05975856816802181</v>
+        <v>0.1025113735861012</v>
       </c>
       <c r="D32">
-        <v>32.34857660756916</v>
+        <v>55.16531204771552</v>
       </c>
       <c r="E32">
-        <v>4.816115054221797</v>
+        <v>8.261686728651753</v>
       </c>
       <c r="F32">
-        <v>55.26670754749733</v>
+        <v>93.94057177917223</v>
       </c>
       <c r="G32">
-        <v>52.87854276232391</v>
+        <v>90.099806100142</v>
       </c>
       <c r="H32">
-        <v>2.356933289338616</v>
+        <v>4.043143541551615</v>
       </c>
       <c r="I32">
-        <v>617.7535029830191</v>
+        <v>440.9248578478045</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1301,28 +1301,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>510.0017194797467</v>
+        <v>205.4124205556863</v>
       </c>
       <c r="C33">
-        <v>0.03677450348801342</v>
+        <v>0.06308392220683155</v>
       </c>
       <c r="D33">
-        <v>59.58948322446951</v>
+        <v>101.6203116668444</v>
       </c>
       <c r="E33">
-        <v>11.43827325377677</v>
+        <v>19.62150598054791</v>
       </c>
       <c r="F33">
-        <v>67.28120918825763</v>
+        <v>114.362435209427</v>
       </c>
       <c r="G33">
-        <v>31.47532307281186</v>
+        <v>53.63083696437023</v>
       </c>
       <c r="H33">
-        <v>3.928222148897693</v>
+        <v>6.73857256925269</v>
       </c>
       <c r="I33">
-        <v>683.7510048714481</v>
+        <v>501.4491668683354</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1330,28 +1330,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>609.9388452943618</v>
+        <v>245.663906252439</v>
       </c>
       <c r="C34">
-        <v>0.05056494229601845</v>
+        <v>0.08674039303439338</v>
       </c>
       <c r="D34">
-        <v>54.4818132338007</v>
+        <v>92.9099992382577</v>
       </c>
       <c r="E34">
-        <v>13.24431639910994</v>
+        <v>22.71963850379231</v>
       </c>
       <c r="F34">
-        <v>45.6551062348891</v>
+        <v>77.60308103496831</v>
       </c>
       <c r="G34">
-        <v>20.14420676659959</v>
+        <v>34.32373565719694</v>
       </c>
       <c r="H34">
-        <v>0.7856444297795385</v>
+        <v>1.347714513850538</v>
       </c>
       <c r="I34">
-        <v>744.3004973008367</v>
+        <v>474.6548155935393</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1359,25 +1359,25 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>642.1766278152055</v>
+        <v>258.6482564771979</v>
       </c>
       <c r="C35">
-        <v>0.03217769055201175</v>
+        <v>0.05519843193097759</v>
       </c>
       <c r="D35">
-        <v>39.15880326179423</v>
+        <v>66.77906195249774</v>
       </c>
       <c r="E35">
-        <v>16.25438830799856</v>
+        <v>27.88319270919967</v>
       </c>
       <c r="F35">
-        <v>24.02900328152057</v>
+        <v>40.84372686050965</v>
       </c>
       <c r="G35">
-        <v>27.69828430407443</v>
+        <v>47.19513652864581</v>
       </c>
       <c r="I35">
-        <v>749.3492846611452</v>
+        <v>441.4045729599818</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1385,25 +1385,25 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>599.6227548876917</v>
+        <v>241.5089141805161</v>
       </c>
       <c r="C36">
-        <v>0.02298406468000839</v>
+        <v>0.03942745137926971</v>
       </c>
       <c r="D36">
-        <v>40.86135992535053</v>
+        <v>69.68249942869326</v>
       </c>
       <c r="E36">
-        <v>12.0402876355545</v>
+        <v>20.65421682162939</v>
       </c>
       <c r="F36">
-        <v>33.64060459412882</v>
+        <v>57.18121760471351</v>
       </c>
       <c r="G36">
-        <v>41.54742645611167</v>
+        <v>70.79270479296871</v>
       </c>
       <c r="I36">
-        <v>727.7354175635172</v>
+        <v>459.8589802799003</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1411,25 +1411,25 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>371.3792546401187</v>
+        <v>149.5797145892228</v>
       </c>
       <c r="C37">
-        <v>0.05056494229601845</v>
+        <v>0.08674039303439338</v>
       </c>
       <c r="D37">
-        <v>37.45624659823798</v>
+        <v>63.87562447630219</v>
       </c>
       <c r="E37">
-        <v>14.44834516266539</v>
+        <v>24.78506018595526</v>
       </c>
       <c r="F37">
-        <v>16.01933552101372</v>
+        <v>27.22915124033977</v>
       </c>
       <c r="G37">
-        <v>42.80643937902413</v>
+        <v>72.93793827154352</v>
       </c>
       <c r="I37">
-        <v>482.160186243356</v>
+        <v>338.494229156398</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1437,25 +1437,25 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>318.5092913059352</v>
+        <v>128.2853802206183</v>
       </c>
       <c r="C38">
-        <v>0.04137131642401511</v>
+        <v>0.07096941248268548</v>
       </c>
       <c r="D38">
-        <v>30.64601994401288</v>
+        <v>52.26187457151997</v>
       </c>
       <c r="E38">
-        <v>6.020143817777248</v>
+        <v>10.3271084108147</v>
       </c>
       <c r="F38">
-        <v>21.62610295336852</v>
+        <v>36.75935417445871</v>
       </c>
       <c r="G38">
-        <v>41.54742645611167</v>
+        <v>70.79270479296871</v>
       </c>
       <c r="I38">
-        <v>418.3903557936296</v>
+        <v>298.4973915828631</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1463,28 +1463,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>221.1511880929875</v>
+        <v>89.07264254184628</v>
       </c>
       <c r="C39">
-        <v>0.0643553811040235</v>
+        <v>0.1103968638619552</v>
       </c>
       <c r="D39">
-        <v>18.72812329911899</v>
+        <v>31.9378122381511</v>
       </c>
       <c r="E39">
-        <v>7.82618696311042</v>
+        <v>13.4252409340591</v>
       </c>
       <c r="F39">
-        <v>12.81546841681098</v>
+        <v>21.78332099227181</v>
       </c>
       <c r="G39">
-        <v>33.99334891863682</v>
+        <v>57.92130392151985</v>
       </c>
       <c r="H39">
-        <v>0.7856444297795385</v>
+        <v>1.347714513850538</v>
       </c>
       <c r="I39">
-        <v>295.3643155015483</v>
+        <v>215.5984320055606</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1492,25 +1492,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>137.9777091892108</v>
+        <v>55.57301896196821</v>
       </c>
       <c r="C40">
-        <v>0.04137131642401511</v>
+        <v>0.07096941248268548</v>
       </c>
       <c r="D40">
-        <v>6.810226654225088</v>
+        <v>11.61374990478221</v>
       </c>
       <c r="E40">
-        <v>4.214100672444072</v>
+        <v>7.228975887570285</v>
       </c>
       <c r="F40">
-        <v>12.01450164076029</v>
+        <v>20.42186343025482</v>
       </c>
       <c r="G40">
-        <v>16.36716799786217</v>
+        <v>27.88803522147252</v>
       </c>
       <c r="I40">
-        <v>177.4250774709264</v>
+        <v>122.7966128185307</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1518,25 +1518,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>74.14689979794035</v>
+        <v>29.86400551694554</v>
       </c>
       <c r="C41">
-        <v>0.0643553811040235</v>
+        <v>0.1103968638619552</v>
       </c>
       <c r="D41">
-        <v>6.810226654225088</v>
+        <v>11.61374990478221</v>
       </c>
       <c r="E41">
-        <v>3.010071908888624</v>
+        <v>5.163554205407348</v>
       </c>
       <c r="F41">
-        <v>12.81546841681098</v>
+        <v>21.78332099227181</v>
       </c>
       <c r="G41">
-        <v>18.88519384368713</v>
+        <v>32.17850217862215</v>
       </c>
       <c r="I41">
-        <v>115.7322160026562</v>
+        <v>100.713529661891</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1544,25 +1544,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>43.19862857793047</v>
+        <v>17.39902930117697</v>
       </c>
       <c r="C42">
-        <v>0.03677450348801342</v>
+        <v>0.06308392220683155</v>
       </c>
       <c r="D42">
-        <v>5.107669990668816</v>
+        <v>8.710312428586658</v>
       </c>
       <c r="E42">
-        <v>2.408057527110898</v>
+        <v>4.130843364325877</v>
       </c>
       <c r="F42">
-        <v>12.01450164076029</v>
+        <v>20.42186343025482</v>
       </c>
       <c r="G42">
-        <v>12.59012922912475</v>
+        <v>21.45233478574808</v>
       </c>
       <c r="I42">
-        <v>75.35576146908323</v>
+        <v>72.17746723229924</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1570,22 +1570,22 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>32.88253817126049</v>
+        <v>13.24403722925412</v>
       </c>
       <c r="C43">
-        <v>0.02758087761601007</v>
+        <v>0.04731294165512365</v>
       </c>
       <c r="D43">
-        <v>3.405113327112544</v>
+        <v>5.806874952391106</v>
       </c>
       <c r="F43">
-        <v>8.00966776050686</v>
+        <v>13.61457562016989</v>
       </c>
       <c r="G43">
-        <v>22.66223261242453</v>
+        <v>38.61420261434657</v>
       </c>
       <c r="I43">
-        <v>66.98713274892043</v>
+        <v>71.32700335781681</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1593,25 +1593,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>25.14547036625805</v>
+        <v>10.12779317531196</v>
       </c>
       <c r="C44">
-        <v>0.01379043880800503</v>
+        <v>0.02365647082756183</v>
       </c>
       <c r="D44">
-        <v>3.405113327112544</v>
+        <v>5.806874952391106</v>
       </c>
       <c r="E44">
-        <v>0.6020143817777246</v>
+        <v>1.032710841081469</v>
       </c>
       <c r="F44">
-        <v>12.81546841681098</v>
+        <v>21.78332099227181</v>
       </c>
       <c r="G44">
-        <v>28.95729722698693</v>
+        <v>49.34037000722059</v>
       </c>
       <c r="I44">
-        <v>70.93915415775423</v>
+        <v>88.11472643910452</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1619,25 +1619,25 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>76.08116674919098</v>
+        <v>30.6430665304311</v>
       </c>
       <c r="C45">
-        <v>0.02298406468000839</v>
+        <v>0.03942745137926971</v>
       </c>
       <c r="D45">
-        <v>13.62045330845018</v>
+        <v>23.22749980956442</v>
       </c>
       <c r="E45">
-        <v>3.010071908888624</v>
+        <v>5.163554205407348</v>
       </c>
       <c r="F45">
-        <v>15.21836874496303</v>
+        <v>25.86769367832279</v>
       </c>
       <c r="G45">
-        <v>47.84249107067402</v>
+        <v>81.51887218584274</v>
       </c>
       <c r="I45">
-        <v>155.7955358468468</v>
+        <v>166.4601138609477</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1645,25 +1645,25 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>134.7539309371264</v>
+        <v>54.27458393949237</v>
       </c>
       <c r="D46">
-        <v>34.05113327112543</v>
+        <v>58.06874952391105</v>
       </c>
       <c r="E46">
-        <v>7.224172581332695</v>
+        <v>12.39253009297763</v>
       </c>
       <c r="F46">
-        <v>26.43190360967262</v>
+        <v>44.92809954656062</v>
       </c>
       <c r="G46">
-        <v>104.4980726017354</v>
+        <v>178.0543787217092</v>
       </c>
       <c r="H46">
-        <v>2.356933289338616</v>
+        <v>4.043143541551615</v>
       </c>
       <c r="I46">
-        <v>309.3161462903311</v>
+        <v>351.7614853662024</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1671,28 +1671,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>397.8142363072106</v>
+        <v>160.2268817735253</v>
       </c>
       <c r="C47">
-        <v>0.03677450348801342</v>
+        <v>0.06308392220683155</v>
       </c>
       <c r="D47">
-        <v>39.15880326179423</v>
+        <v>66.77906195249774</v>
       </c>
       <c r="E47">
-        <v>20.46848898044264</v>
+        <v>35.11216859676995</v>
       </c>
       <c r="F47">
-        <v>56.86864109959871</v>
+        <v>96.66348690320616</v>
       </c>
       <c r="G47">
-        <v>107.0160984475604</v>
+        <v>182.3448456788588</v>
       </c>
       <c r="H47">
-        <v>1.571288859559077</v>
+        <v>2.695429027701076</v>
       </c>
       <c r="I47">
-        <v>622.9343314596537</v>
+        <v>543.8849578547658</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1700,28 +1700,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>475.1849143572353</v>
+        <v>191.3893223129466</v>
       </c>
       <c r="C48">
-        <v>0.06895219404002517</v>
+        <v>0.1182823541378091</v>
       </c>
       <c r="D48">
-        <v>25.53834995334408</v>
+        <v>43.55156214293329</v>
       </c>
       <c r="E48">
-        <v>13.24431639910994</v>
+        <v>22.71963850379231</v>
       </c>
       <c r="F48">
-        <v>52.06284044329458</v>
+        <v>88.49474153110427</v>
       </c>
       <c r="G48">
-        <v>79.3178141434859</v>
+        <v>135.149709150213</v>
       </c>
       <c r="H48">
-        <v>3.928222148897693</v>
+        <v>6.73857256925269</v>
       </c>
       <c r="I48">
-        <v>649.3454096394075</v>
+        <v>488.1618285643799</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1729,28 +1729,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>604.1360444406098</v>
+        <v>243.3267232119824</v>
       </c>
       <c r="C49">
-        <v>0.01838725174400671</v>
+        <v>0.03154196110341578</v>
       </c>
       <c r="D49">
-        <v>47.67158657957559</v>
+        <v>81.29624933347553</v>
       </c>
       <c r="E49">
-        <v>12.0402876355545</v>
+        <v>20.65421682162939</v>
       </c>
       <c r="F49">
-        <v>47.25703978699047</v>
+        <v>80.32599615900232</v>
       </c>
       <c r="G49">
-        <v>71.76373660601105</v>
+        <v>122.2783082787641</v>
       </c>
       <c r="H49">
-        <v>0.7856444297795385</v>
+        <v>1.347714513850538</v>
       </c>
       <c r="I49">
-        <v>783.6727267302649</v>
+        <v>549.2607502798078</v>
       </c>
     </row>
   </sheetData>
